--- a/vm_OracleRestart.xlsx
+++ b/vm_OracleRestart.xlsx
@@ -6735,215 +6735,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="44" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="45" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="7" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="48" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6971,16 +6762,225 @@
     <xf numFmtId="49" fontId="25" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="45" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="7" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="48" fillId="7" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="9" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="11" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="10" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="10" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="2" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="25" fillId="7" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7008,15 +7008,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>84771</xdr:colOff>
-      <xdr:row>122</xdr:row>
-      <xdr:rowOff>37388</xdr:rowOff>
+      <xdr:colOff>94296</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>46913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7033,7 +7033,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="15259050"/>
+          <a:off x="4810125" y="14925675"/>
           <a:ext cx="7628571" cy="5695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7692,8 +7692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B1028"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10887,11 +10887,11 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
       <c r="D3" s="10" t="s">
         <v>528</v>
       </c>
@@ -10914,11 +10914,11 @@
       <c r="M3" s="148"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="245"/>
       <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
@@ -10937,11 +10937,11 @@
       <c r="M4" s="151"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="245"/>
       <c r="D5" s="11" t="s">
         <v>788</v>
       </c>
@@ -10960,11 +10960,11 @@
       <c r="M5" s="151"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="245"/>
       <c r="D6" s="15" t="s">
         <v>554</v>
       </c>
@@ -10983,11 +10983,11 @@
       <c r="M6" s="151"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="245"/>
       <c r="D7" s="11" t="s">
         <v>52</v>
       </c>
@@ -11004,11 +11004,11 @@
       <c r="M7" s="151"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="11" t="s">
         <v>55</v>
       </c>
@@ -11027,11 +11027,11 @@
       <c r="M8" s="151"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
@@ -11052,13 +11052,13 @@
       <c r="M9" s="151"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="175"/>
+      <c r="C10" s="245"/>
       <c r="D10" s="16" t="s">
         <v>63</v>
       </c>
@@ -11077,13 +11077,13 @@
       <c r="M10" s="151"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="175"/>
+      <c r="C11" s="245"/>
       <c r="D11" s="16" t="s">
         <v>59</v>
       </c>
@@ -11100,11 +11100,11 @@
       <c r="M11" s="151"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="175"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
       <c r="D12" s="15" t="s">
         <v>573</v>
       </c>
@@ -11125,15 +11125,15 @@
       <c r="M12" s="151"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="183" t="s">
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="254" t="s">
         <v>602</v>
       </c>
-      <c r="E13" s="184"/>
+      <c r="E13" s="255"/>
       <c r="F13" s="18" t="s">
         <v>603</v>
       </c>
@@ -11146,13 +11146,13 @@
       <c r="M13" s="151"/>
     </row>
     <row r="14" spans="1:13" ht="24">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="17" t="s">
@@ -11165,11 +11165,11 @@
       <c r="M14" s="151"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="245"/>
       <c r="D15" s="18" t="s">
         <v>71</v>
       </c>
@@ -11188,11 +11188,11 @@
       <c r="M15" s="151"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="245"/>
       <c r="D16" s="15" t="s">
         <v>560</v>
       </c>
@@ -11213,15 +11213,15 @@
       <c r="M16" s="151"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="181" t="s">
+      <c r="B17" s="244"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="241" t="s">
         <v>568</v>
       </c>
-      <c r="E17" s="182"/>
+      <c r="E17" s="242"/>
       <c r="F17" s="18" t="s">
         <v>569</v>
       </c>
@@ -11236,17 +11236,17 @@
       <c r="M17" s="151"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175" t="s">
+      <c r="B18" s="244"/>
+      <c r="C18" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="185" t="s">
+      <c r="D18" s="246" t="s">
         <v>570</v>
       </c>
-      <c r="E18" s="186"/>
+      <c r="E18" s="247"/>
       <c r="F18" s="18" t="s">
         <v>571</v>
       </c>
@@ -11261,11 +11261,11 @@
       <c r="M18" s="151"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245"/>
       <c r="D19" s="15" t="s">
         <v>561</v>
       </c>
@@ -11284,11 +11284,11 @@
       <c r="M19" s="151"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245"/>
       <c r="D20" s="15" t="s">
         <v>563</v>
       </c>
@@ -11309,11 +11309,11 @@
       <c r="M20" s="151"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
       <c r="D21" s="15" t="s">
         <v>565</v>
       </c>
@@ -11334,15 +11334,15 @@
       <c r="M21" s="151"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="181" t="s">
+      <c r="B22" s="244"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="182"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="18" t="s">
         <v>561</v>
       </c>
@@ -11358,15 +11358,15 @@
       <c r="M22" s="151"/>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="181" t="s">
+      <c r="B23" s="244"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="241" t="s">
         <v>767</v>
       </c>
-      <c r="E23" s="182"/>
+      <c r="E23" s="242"/>
       <c r="F23" s="18" t="s">
         <v>561</v>
       </c>
@@ -11381,15 +11381,15 @@
       <c r="M23" s="151"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="181" t="s">
+      <c r="B24" s="244"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="241" t="s">
         <v>768</v>
       </c>
-      <c r="E24" s="182"/>
+      <c r="E24" s="242"/>
       <c r="F24" s="18" t="s">
         <v>561</v>
       </c>
@@ -11402,15 +11402,15 @@
       <c r="M24" s="151"/>
     </row>
     <row r="25" spans="1:13" ht="30" customHeight="1">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="174"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="181" t="s">
+      <c r="B25" s="244"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="241" t="s">
         <v>567</v>
       </c>
-      <c r="E25" s="182"/>
+      <c r="E25" s="242"/>
       <c r="F25" s="18" t="s">
         <v>561</v>
       </c>
@@ -11450,10 +11450,10 @@
       <c r="A29" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="190"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="27" t="s">
         <v>91</v>
       </c>
@@ -11485,10 +11485,10 @@
       <c r="A30" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="188"/>
+      <c r="C30" s="240"/>
       <c r="D30" s="29" t="s">
         <v>97</v>
       </c>
@@ -11516,10 +11516,10 @@
       <c r="A31" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="240"/>
       <c r="D31" s="29" t="s">
         <v>103</v>
       </c>
@@ -11543,10 +11543,10 @@
       <c r="A32" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="240"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30" t="s">
         <v>106</v>
@@ -11568,10 +11568,10 @@
       <c r="A33" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="188"/>
+      <c r="C33" s="240"/>
       <c r="D33" s="29" t="s">
         <v>110</v>
       </c>
@@ -11595,10 +11595,10 @@
       <c r="A34" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="240"/>
       <c r="D34" s="29" t="s">
         <v>114</v>
       </c>
@@ -11622,10 +11622,10 @@
       <c r="A35" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="187" t="s">
+      <c r="B35" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="240"/>
       <c r="D35" s="29" t="s">
         <v>118</v>
       </c>
@@ -11651,10 +11651,10 @@
       <c r="A36" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="29" t="s">
         <v>123</v>
       </c>
@@ -11680,8 +11680,8 @@
       <c r="A37" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="193"/>
       <c r="D37" s="27"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
@@ -11712,10 +11712,10 @@
       <c r="A41" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="190"/>
+      <c r="C41" s="193"/>
       <c r="D41" s="27" t="s">
         <v>91</v>
       </c>
@@ -11751,22 +11751,22 @@
       <c r="A42" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="192"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="229"/>
       <c r="D42" s="45"/>
-      <c r="E42" s="178" t="s">
+      <c r="E42" s="251" t="s">
         <v>1216</v>
       </c>
-      <c r="F42" s="178"/>
+      <c r="F42" s="251"/>
       <c r="G42" s="138" t="s">
         <v>579</v>
       </c>
       <c r="H42" s="46"/>
-      <c r="I42" s="198" t="s">
+      <c r="I42" s="233" t="s">
         <v>575</v>
       </c>
       <c r="J42" s="33"/>
-      <c r="K42" s="201" t="s">
+      <c r="K42" s="236" t="s">
         <v>134</v>
       </c>
       <c r="L42" s="35"/>
@@ -11776,20 +11776,20 @@
       <c r="A43" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="192"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="229"/>
       <c r="D43" s="45"/>
-      <c r="E43" s="178" t="s">
+      <c r="E43" s="251" t="s">
         <v>1217</v>
       </c>
-      <c r="F43" s="178"/>
+      <c r="F43" s="251"/>
       <c r="G43" s="138" t="s">
         <v>580</v>
       </c>
       <c r="H43" s="46"/>
-      <c r="I43" s="199"/>
+      <c r="I43" s="234"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="202"/>
+      <c r="K43" s="237"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
     </row>
@@ -11797,20 +11797,20 @@
       <c r="A44" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="191"/>
-      <c r="C44" s="192"/>
+      <c r="B44" s="228"/>
+      <c r="C44" s="229"/>
       <c r="D44" s="45"/>
-      <c r="E44" s="178" t="s">
+      <c r="E44" s="251" t="s">
         <v>1218</v>
       </c>
-      <c r="F44" s="178"/>
+      <c r="F44" s="251"/>
       <c r="G44" s="138" t="s">
         <v>581</v>
       </c>
       <c r="H44" s="46"/>
-      <c r="I44" s="199"/>
+      <c r="I44" s="234"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="203"/>
+      <c r="K44" s="238"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
     </row>
@@ -11818,18 +11818,18 @@
       <c r="A45" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="191"/>
-      <c r="C45" s="192"/>
+      <c r="B45" s="228"/>
+      <c r="C45" s="229"/>
       <c r="D45" s="45"/>
-      <c r="E45" s="178" t="s">
+      <c r="E45" s="251" t="s">
         <v>1219</v>
       </c>
-      <c r="F45" s="178"/>
+      <c r="F45" s="251"/>
       <c r="G45" s="138" t="s">
         <v>582</v>
       </c>
       <c r="H45" s="46"/>
-      <c r="I45" s="200"/>
+      <c r="I45" s="235"/>
       <c r="J45" s="33"/>
       <c r="K45" s="32" t="s">
         <v>138</v>
@@ -11839,8 +11839,8 @@
     </row>
     <row r="46" spans="1:13" s="26" customFormat="1" ht="12">
       <c r="A46" s="44"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="192"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="44"/>
       <c r="E46" s="47"/>
       <c r="F46" s="47"/>
@@ -11854,8 +11854,8 @@
     </row>
     <row r="47" spans="1:13" s="26" customFormat="1" ht="12">
       <c r="A47" s="44"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="192"/>
+      <c r="B47" s="228"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="44"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -11871,14 +11871,14 @@
       <c r="A48" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="194"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="231"/>
       <c r="D48" s="43"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="195"/>
-      <c r="H48" s="195"/>
-      <c r="I48" s="194"/>
+      <c r="E48" s="230"/>
+      <c r="F48" s="232"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="232"/>
+      <c r="I48" s="231"/>
       <c r="J48" s="43"/>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -11912,12 +11912,12 @@
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:13" s="26" customFormat="1" ht="12">
-      <c r="A52" s="189" t="s">
+      <c r="A52" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="190"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="193"/>
       <c r="E52" s="27" t="s">
         <v>555</v>
       </c>
@@ -11929,42 +11929,42 @@
       </c>
       <c r="H52" s="53"/>
       <c r="I52" s="53"/>
-      <c r="J52" s="176" t="s">
+      <c r="J52" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="K52" s="176" t="s">
+      <c r="K52" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="L52" s="176" t="s">
+      <c r="L52" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="M52" s="176" t="s">
+      <c r="M52" s="212" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:13" s="26" customFormat="1" ht="12">
-      <c r="A53" s="207" t="s">
+      <c r="A53" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="208"/>
-      <c r="C53" s="208"/>
-      <c r="D53" s="209"/>
+      <c r="B53" s="226"/>
+      <c r="C53" s="226"/>
+      <c r="D53" s="227"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
       <c r="I53" s="54"/>
-      <c r="J53" s="197"/>
-      <c r="K53" s="206"/>
-      <c r="L53" s="206"/>
-      <c r="M53" s="206"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="213"/>
+      <c r="L53" s="213"/>
+      <c r="M53" s="213"/>
     </row>
     <row r="54" spans="1:13" ht="14.25">
-      <c r="A54" s="204" t="s">
+      <c r="A54" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
+      <c r="B54" s="218"/>
+      <c r="C54" s="218"/>
       <c r="D54" s="55" t="s">
         <v>146</v>
       </c>
@@ -11989,11 +11989,11 @@
       <c r="M54" s="57"/>
     </row>
     <row r="55" spans="1:13" ht="14.25">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
+      <c r="B55" s="218"/>
+      <c r="C55" s="218"/>
       <c r="D55" s="55" t="s">
         <v>146</v>
       </c>
@@ -12014,11 +12014,11 @@
       <c r="M55" s="57"/>
     </row>
     <row r="56" spans="1:13" ht="14.25">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
+      <c r="B56" s="218"/>
+      <c r="C56" s="218"/>
       <c r="D56" s="55" t="s">
         <v>146</v>
       </c>
@@ -12039,11 +12039,11 @@
       <c r="M56" s="57"/>
     </row>
     <row r="57" spans="1:13" ht="14.25">
-      <c r="A57" s="204" t="s">
+      <c r="A57" s="217" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="205"/>
-      <c r="C57" s="205"/>
+      <c r="B57" s="218"/>
+      <c r="C57" s="218"/>
       <c r="D57" s="55" t="s">
         <v>146</v>
       </c>
@@ -12058,11 +12058,11 @@
       <c r="M57" s="57"/>
     </row>
     <row r="58" spans="1:13" ht="14.25">
-      <c r="A58" s="204" t="s">
+      <c r="A58" s="217" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
+      <c r="B58" s="218"/>
+      <c r="C58" s="218"/>
       <c r="D58" s="55" t="s">
         <v>146</v>
       </c>
@@ -12077,11 +12077,11 @@
       <c r="M58" s="57"/>
     </row>
     <row r="59" spans="1:13" ht="14.25">
-      <c r="A59" s="204" t="s">
+      <c r="A59" s="217" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="218"/>
       <c r="D59" s="55" t="s">
         <v>146</v>
       </c>
@@ -12102,11 +12102,11 @@
       <c r="M59" s="57"/>
     </row>
     <row r="60" spans="1:13" ht="14.25">
-      <c r="A60" s="204" t="s">
+      <c r="A60" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
+      <c r="B60" s="218"/>
+      <c r="C60" s="218"/>
       <c r="D60" s="55" t="s">
         <v>146</v>
       </c>
@@ -12127,11 +12127,11 @@
       <c r="M60" s="57"/>
     </row>
     <row r="61" spans="1:13" ht="14.25">
-      <c r="A61" s="204" t="s">
+      <c r="A61" s="217" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
       <c r="D61" s="55" t="s">
         <v>146</v>
       </c>
@@ -12146,11 +12146,11 @@
       <c r="M61" s="57"/>
     </row>
     <row r="62" spans="1:13" ht="14.25">
-      <c r="A62" s="204" t="s">
+      <c r="A62" s="217" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
       <c r="D62" s="55" t="s">
         <v>146</v>
       </c>
@@ -12171,11 +12171,11 @@
       <c r="M62" s="57"/>
     </row>
     <row r="63" spans="1:13" ht="14.25">
-      <c r="A63" s="204" t="s">
+      <c r="A63" s="217" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="218"/>
       <c r="D63" s="55" t="s">
         <v>146</v>
       </c>
@@ -12196,9 +12196,9 @@
       <c r="M63" s="57"/>
     </row>
     <row r="64" spans="1:13" ht="14.25">
-      <c r="A64" s="211"/>
-      <c r="B64" s="212"/>
-      <c r="C64" s="213"/>
+      <c r="A64" s="219"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="221"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
@@ -12211,9 +12211,9 @@
       <c r="M64" s="57"/>
     </row>
     <row r="65" spans="1:13" ht="14.25">
-      <c r="A65" s="214"/>
-      <c r="B65" s="215"/>
-      <c r="C65" s="216"/>
+      <c r="A65" s="222"/>
+      <c r="B65" s="223"/>
+      <c r="C65" s="224"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
@@ -12226,9 +12226,9 @@
       <c r="M65" s="57"/>
     </row>
     <row r="66" spans="1:13" ht="14.25">
-      <c r="A66" s="214"/>
-      <c r="B66" s="215"/>
-      <c r="C66" s="216"/>
+      <c r="A66" s="222"/>
+      <c r="B66" s="223"/>
+      <c r="C66" s="224"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
@@ -12249,12 +12249,12 @@
       <c r="C68" s="63"/>
     </row>
     <row r="69" spans="1:13" s="26" customFormat="1" ht="12">
-      <c r="A69" s="189" t="s">
+      <c r="A69" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="196"/>
-      <c r="C69" s="196"/>
-      <c r="D69" s="190"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="193"/>
       <c r="E69" s="27" t="s">
         <v>555</v>
       </c>
@@ -12266,26 +12266,26 @@
       </c>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
-      <c r="J69" s="176" t="s">
+      <c r="J69" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="K69" s="176" t="s">
+      <c r="K69" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="L69" s="176" t="s">
+      <c r="L69" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="176" t="s">
+      <c r="M69" s="212" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:13" s="26" customFormat="1" ht="12">
-      <c r="A70" s="189" t="s">
+      <c r="A70" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="196"/>
-      <c r="C70" s="196"/>
-      <c r="D70" s="190"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="193"/>
       <c r="E70" s="64" t="s">
         <v>172</v>
       </c>
@@ -12297,18 +12297,18 @@
       </c>
       <c r="H70" s="65"/>
       <c r="I70" s="65"/>
-      <c r="J70" s="210"/>
-      <c r="K70" s="206"/>
-      <c r="L70" s="206"/>
-      <c r="M70" s="206"/>
+      <c r="J70" s="216"/>
+      <c r="K70" s="213"/>
+      <c r="L70" s="213"/>
+      <c r="M70" s="213"/>
     </row>
     <row r="71" spans="1:13" s="26" customFormat="1" ht="12">
-      <c r="A71" s="189" t="s">
+      <c r="A71" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="196"/>
-      <c r="C71" s="196"/>
-      <c r="D71" s="190"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="192"/>
+      <c r="D71" s="193"/>
       <c r="E71" s="64" t="s">
         <v>174</v>
       </c>
@@ -12337,58 +12337,58 @@
       <c r="C73" s="62"/>
     </row>
     <row r="74" spans="1:13" s="26" customFormat="1" ht="12">
-      <c r="A74" s="189" t="s">
+      <c r="A74" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="196"/>
-      <c r="C74" s="196"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="176" t="s">
+      <c r="B74" s="192"/>
+      <c r="C74" s="192"/>
+      <c r="D74" s="193"/>
+      <c r="E74" s="212" t="s">
         <v>555</v>
       </c>
-      <c r="F74" s="176" t="s">
+      <c r="F74" s="212" t="s">
         <v>556</v>
       </c>
-      <c r="G74" s="176" t="s">
+      <c r="G74" s="212" t="s">
         <v>578</v>
       </c>
-      <c r="H74" s="176"/>
-      <c r="I74" s="176"/>
-      <c r="J74" s="176" t="s">
+      <c r="H74" s="212"/>
+      <c r="I74" s="212"/>
+      <c r="J74" s="212" t="s">
         <v>131</v>
       </c>
-      <c r="K74" s="176" t="s">
+      <c r="K74" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="L74" s="176" t="s">
+      <c r="L74" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="M74" s="176" t="s">
+      <c r="M74" s="212" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:13" s="26" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="189" t="s">
+      <c r="A75" s="191" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="196"/>
-      <c r="C75" s="196"/>
-      <c r="D75" s="190"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="177"/>
-      <c r="J75" s="197"/>
-      <c r="K75" s="206"/>
-      <c r="L75" s="206"/>
-      <c r="M75" s="206"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="192"/>
+      <c r="D75" s="193"/>
+      <c r="E75" s="214"/>
+      <c r="F75" s="214"/>
+      <c r="G75" s="214"/>
+      <c r="H75" s="214"/>
+      <c r="I75" s="214"/>
+      <c r="J75" s="215"/>
+      <c r="K75" s="213"/>
+      <c r="L75" s="213"/>
+      <c r="M75" s="213"/>
     </row>
     <row r="76" spans="1:13" ht="14.25">
-      <c r="A76" s="217"/>
-      <c r="B76" s="218"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="219"/>
+      <c r="A76" s="209"/>
+      <c r="B76" s="210"/>
+      <c r="C76" s="210"/>
+      <c r="D76" s="211"/>
       <c r="E76" s="69" t="s">
         <v>177</v>
       </c>
@@ -12406,10 +12406,10 @@
       <c r="M76" s="57"/>
     </row>
     <row r="77" spans="1:13" ht="14.25">
-      <c r="A77" s="217"/>
-      <c r="B77" s="218"/>
-      <c r="C77" s="218"/>
-      <c r="D77" s="219"/>
+      <c r="A77" s="209"/>
+      <c r="B77" s="210"/>
+      <c r="C77" s="210"/>
+      <c r="D77" s="211"/>
       <c r="E77" s="69"/>
       <c r="F77" s="69"/>
       <c r="G77" s="69"/>
@@ -12421,12 +12421,12 @@
       <c r="M77" s="57"/>
     </row>
     <row r="78" spans="1:13" ht="14.25">
-      <c r="A78" s="217" t="s">
+      <c r="A78" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="218"/>
-      <c r="C78" s="218"/>
-      <c r="D78" s="219"/>
+      <c r="B78" s="210"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="211"/>
       <c r="E78" s="69" t="s">
         <v>177</v>
       </c>
@@ -12444,12 +12444,12 @@
       <c r="M78" s="57"/>
     </row>
     <row r="79" spans="1:13" ht="14.25">
-      <c r="A79" s="217" t="s">
+      <c r="A79" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="218"/>
-      <c r="C79" s="218"/>
-      <c r="D79" s="219"/>
+      <c r="B79" s="210"/>
+      <c r="C79" s="210"/>
+      <c r="D79" s="211"/>
       <c r="E79" s="69" t="s">
         <v>177</v>
       </c>
@@ -12518,12 +12518,12 @@
       <c r="Q82" s="75"/>
     </row>
     <row r="83" spans="1:17" s="25" customFormat="1" ht="24">
-      <c r="A83" s="189" t="s">
+      <c r="A83" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="196"/>
-      <c r="C83" s="196"/>
-      <c r="D83" s="190"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="193"/>
       <c r="E83" s="27" t="s">
         <v>555</v>
       </c>
@@ -12715,12 +12715,12 @@
       <c r="Q89" s="40"/>
     </row>
     <row r="90" spans="1:17" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A90" s="220" t="s">
+      <c r="A90" s="206" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="221"/>
-      <c r="C90" s="221"/>
-      <c r="D90" s="222"/>
+      <c r="B90" s="207"/>
+      <c r="C90" s="207"/>
+      <c r="D90" s="208"/>
       <c r="E90" s="80" t="s">
         <v>186</v>
       </c>
@@ -12738,12 +12738,12 @@
       <c r="M90" s="39"/>
     </row>
     <row r="91" spans="1:17" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A91" s="226" t="s">
+      <c r="A91" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="227"/>
-      <c r="C91" s="227"/>
-      <c r="D91" s="228"/>
+      <c r="B91" s="195"/>
+      <c r="C91" s="195"/>
+      <c r="D91" s="196"/>
       <c r="E91" s="80" t="s">
         <v>197</v>
       </c>
@@ -12763,12 +12763,12 @@
       <c r="M91" s="39"/>
     </row>
     <row r="92" spans="1:17" s="40" customFormat="1" ht="12.75">
-      <c r="A92" s="220" t="s">
+      <c r="A92" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="221"/>
-      <c r="C92" s="221"/>
-      <c r="D92" s="222"/>
+      <c r="B92" s="207"/>
+      <c r="C92" s="207"/>
+      <c r="D92" s="208"/>
       <c r="E92" s="80" t="s">
         <v>200</v>
       </c>
@@ -12788,12 +12788,12 @@
       <c r="M92" s="39"/>
     </row>
     <row r="93" spans="1:17" s="40" customFormat="1" ht="12">
-      <c r="A93" s="220" t="s">
+      <c r="A93" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="221"/>
-      <c r="C93" s="221"/>
-      <c r="D93" s="222"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="208"/>
       <c r="E93" s="80" t="s">
         <v>203</v>
       </c>
@@ -12813,12 +12813,12 @@
       <c r="M93" s="39"/>
     </row>
     <row r="94" spans="1:17" s="87" customFormat="1" ht="12">
-      <c r="A94" s="220" t="s">
+      <c r="A94" s="206" t="s">
         <v>206</v>
       </c>
-      <c r="B94" s="221"/>
-      <c r="C94" s="221"/>
-      <c r="D94" s="222"/>
+      <c r="B94" s="207"/>
+      <c r="C94" s="207"/>
+      <c r="D94" s="208"/>
       <c r="E94" s="80" t="s">
         <v>207</v>
       </c>
@@ -12836,12 +12836,12 @@
       <c r="M94" s="86"/>
     </row>
     <row r="95" spans="1:17" s="81" customFormat="1" ht="12">
-      <c r="A95" s="220" t="s">
+      <c r="A95" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="221"/>
-      <c r="C95" s="221"/>
-      <c r="D95" s="222"/>
+      <c r="B95" s="207"/>
+      <c r="C95" s="207"/>
+      <c r="D95" s="208"/>
       <c r="E95" s="80" t="s">
         <v>209</v>
       </c>
@@ -12863,12 +12863,12 @@
       <c r="Q95" s="40"/>
     </row>
     <row r="96" spans="1:17" s="81" customFormat="1" ht="12">
-      <c r="A96" s="223" t="s">
+      <c r="A96" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="224"/>
-      <c r="C96" s="224"/>
-      <c r="D96" s="225"/>
+      <c r="B96" s="204"/>
+      <c r="C96" s="204"/>
+      <c r="D96" s="205"/>
       <c r="E96" s="80" t="s">
         <v>186</v>
       </c>
@@ -12890,12 +12890,12 @@
       <c r="Q96" s="40"/>
     </row>
     <row r="97" spans="1:17" s="81" customFormat="1" ht="24">
-      <c r="A97" s="226" t="s">
+      <c r="A97" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="227"/>
-      <c r="C97" s="227"/>
-      <c r="D97" s="228"/>
+      <c r="B97" s="195"/>
+      <c r="C97" s="195"/>
+      <c r="D97" s="196"/>
       <c r="E97" s="80" t="s">
         <v>210</v>
       </c>
@@ -12917,12 +12917,12 @@
       <c r="Q97" s="40"/>
     </row>
     <row r="98" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A98" s="223" t="s">
+      <c r="A98" s="203" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="224"/>
-      <c r="C98" s="224"/>
-      <c r="D98" s="225"/>
+      <c r="B98" s="204"/>
+      <c r="C98" s="204"/>
+      <c r="D98" s="205"/>
       <c r="E98" s="80" t="s">
         <v>212</v>
       </c>
@@ -12946,12 +12946,12 @@
       <c r="Q98" s="89"/>
     </row>
     <row r="99" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A99" s="223" t="s">
+      <c r="A99" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="224"/>
-      <c r="C99" s="224"/>
-      <c r="D99" s="225"/>
+      <c r="B99" s="204"/>
+      <c r="C99" s="204"/>
+      <c r="D99" s="205"/>
       <c r="E99" s="80" t="s">
         <v>215</v>
       </c>
@@ -12973,12 +12973,12 @@
       <c r="Q99" s="89"/>
     </row>
     <row r="100" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A100" s="223" t="s">
+      <c r="A100" s="203" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="224"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="225"/>
+      <c r="B100" s="204"/>
+      <c r="C100" s="204"/>
+      <c r="D100" s="205"/>
       <c r="E100" s="80" t="s">
         <v>207</v>
       </c>
@@ -13000,12 +13000,12 @@
       <c r="Q100" s="89"/>
     </row>
     <row r="101" spans="1:17" s="81" customFormat="1" ht="12">
-      <c r="A101" s="223" t="s">
+      <c r="A101" s="203" t="s">
         <v>216</v>
       </c>
-      <c r="B101" s="224"/>
-      <c r="C101" s="224"/>
-      <c r="D101" s="225"/>
+      <c r="B101" s="204"/>
+      <c r="C101" s="204"/>
+      <c r="D101" s="205"/>
       <c r="E101" s="80" t="s">
         <v>217</v>
       </c>
@@ -13027,12 +13027,12 @@
       <c r="Q101" s="40"/>
     </row>
     <row r="102" spans="1:17" s="25" customFormat="1" ht="12">
-      <c r="A102" s="229" t="s">
+      <c r="A102" s="200" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="230"/>
-      <c r="C102" s="230"/>
-      <c r="D102" s="231"/>
+      <c r="B102" s="201"/>
+      <c r="C102" s="201"/>
+      <c r="D102" s="202"/>
       <c r="E102" s="64"/>
       <c r="F102" s="64"/>
       <c r="G102" s="64"/>
@@ -13048,12 +13048,12 @@
       <c r="Q102" s="26"/>
     </row>
     <row r="103" spans="1:17" s="25" customFormat="1" ht="14.25">
-      <c r="A103" s="229" t="s">
+      <c r="A103" s="200" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="230"/>
-      <c r="C103" s="230"/>
-      <c r="D103" s="231"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="201"/>
+      <c r="D103" s="202"/>
       <c r="E103" s="91" t="s">
         <v>220</v>
       </c>
@@ -13077,12 +13077,12 @@
       <c r="Q103" s="26"/>
     </row>
     <row r="104" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A104" s="229" t="s">
+      <c r="A104" s="200" t="s">
         <v>223</v>
       </c>
-      <c r="B104" s="230"/>
-      <c r="C104" s="230"/>
-      <c r="D104" s="231"/>
+      <c r="B104" s="201"/>
+      <c r="C104" s="201"/>
+      <c r="D104" s="202"/>
       <c r="E104" s="64" t="s">
         <v>224</v>
       </c>
@@ -13106,12 +13106,12 @@
       <c r="Q104" s="89"/>
     </row>
     <row r="105" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A105" s="229" t="s">
+      <c r="A105" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="230"/>
-      <c r="C105" s="230"/>
-      <c r="D105" s="231"/>
+      <c r="B105" s="201"/>
+      <c r="C105" s="201"/>
+      <c r="D105" s="202"/>
       <c r="E105" s="64"/>
       <c r="F105" s="64"/>
       <c r="G105" s="64"/>
@@ -13127,12 +13127,12 @@
       <c r="Q105" s="89"/>
     </row>
     <row r="106" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A106" s="229" t="s">
+      <c r="A106" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="B106" s="230"/>
-      <c r="C106" s="230"/>
-      <c r="D106" s="231"/>
+      <c r="B106" s="201"/>
+      <c r="C106" s="201"/>
+      <c r="D106" s="202"/>
       <c r="E106" s="64"/>
       <c r="F106" s="64"/>
       <c r="G106" s="64"/>
@@ -13148,12 +13148,12 @@
       <c r="Q106" s="89"/>
     </row>
     <row r="107" spans="1:17" s="25" customFormat="1" ht="12">
-      <c r="A107" s="232" t="s">
+      <c r="A107" s="197" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="233"/>
-      <c r="C107" s="233"/>
-      <c r="D107" s="234"/>
+      <c r="B107" s="198"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="199"/>
       <c r="E107" s="64"/>
       <c r="F107" s="64"/>
       <c r="G107" s="64"/>
@@ -13169,12 +13169,12 @@
       <c r="Q107" s="26"/>
     </row>
     <row r="108" spans="1:17" s="25" customFormat="1" ht="12">
-      <c r="A108" s="232" t="s">
+      <c r="A108" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="233"/>
-      <c r="C108" s="233"/>
-      <c r="D108" s="234"/>
+      <c r="B108" s="198"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="199"/>
       <c r="E108" s="91"/>
       <c r="F108" s="91"/>
       <c r="G108" s="91"/>
@@ -13190,12 +13190,12 @@
       <c r="Q108" s="26"/>
     </row>
     <row r="109" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A109" s="232" t="s">
+      <c r="A109" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="233"/>
-      <c r="C109" s="233"/>
-      <c r="D109" s="234"/>
+      <c r="B109" s="198"/>
+      <c r="C109" s="198"/>
+      <c r="D109" s="199"/>
       <c r="E109" s="64"/>
       <c r="F109" s="64"/>
       <c r="G109" s="64"/>
@@ -13211,12 +13211,12 @@
       <c r="Q109" s="89"/>
     </row>
     <row r="110" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A110" s="232" t="s">
+      <c r="A110" s="197" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="233"/>
-      <c r="C110" s="233"/>
-      <c r="D110" s="234"/>
+      <c r="B110" s="198"/>
+      <c r="C110" s="198"/>
+      <c r="D110" s="199"/>
       <c r="E110" s="64"/>
       <c r="F110" s="64"/>
       <c r="G110" s="64"/>
@@ -13232,12 +13232,12 @@
       <c r="Q110" s="89"/>
     </row>
     <row r="111" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A111" s="232" t="s">
+      <c r="A111" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="233"/>
-      <c r="C111" s="233"/>
-      <c r="D111" s="234"/>
+      <c r="B111" s="198"/>
+      <c r="C111" s="198"/>
+      <c r="D111" s="199"/>
       <c r="E111" s="64"/>
       <c r="F111" s="64"/>
       <c r="G111" s="64"/>
@@ -13253,12 +13253,12 @@
       <c r="Q111" s="89"/>
     </row>
     <row r="112" spans="1:17" s="25" customFormat="1" ht="12">
-      <c r="A112" s="229" t="s">
+      <c r="A112" s="200" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="230"/>
-      <c r="C112" s="230"/>
-      <c r="D112" s="231"/>
+      <c r="B112" s="201"/>
+      <c r="C112" s="201"/>
+      <c r="D112" s="202"/>
       <c r="E112" s="64"/>
       <c r="F112" s="64"/>
       <c r="G112" s="64"/>
@@ -13274,12 +13274,12 @@
       <c r="Q112" s="26"/>
     </row>
     <row r="113" spans="1:17" s="25" customFormat="1" ht="12">
-      <c r="A113" s="229" t="s">
+      <c r="A113" s="200" t="s">
         <v>232</v>
       </c>
-      <c r="B113" s="230"/>
-      <c r="C113" s="230"/>
-      <c r="D113" s="231"/>
+      <c r="B113" s="201"/>
+      <c r="C113" s="201"/>
+      <c r="D113" s="202"/>
       <c r="E113" s="91"/>
       <c r="F113" s="91"/>
       <c r="G113" s="91"/>
@@ -13295,12 +13295,12 @@
       <c r="Q113" s="26"/>
     </row>
     <row r="114" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A114" s="229" t="s">
+      <c r="A114" s="200" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="230"/>
-      <c r="C114" s="230"/>
-      <c r="D114" s="231"/>
+      <c r="B114" s="201"/>
+      <c r="C114" s="201"/>
+      <c r="D114" s="202"/>
       <c r="E114" s="64"/>
       <c r="F114" s="64"/>
       <c r="G114" s="64"/>
@@ -13316,12 +13316,12 @@
       <c r="Q114" s="89"/>
     </row>
     <row r="115" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A115" s="229" t="s">
+      <c r="A115" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="230"/>
-      <c r="C115" s="230"/>
-      <c r="D115" s="231"/>
+      <c r="B115" s="201"/>
+      <c r="C115" s="201"/>
+      <c r="D115" s="202"/>
       <c r="E115" s="64"/>
       <c r="F115" s="64"/>
       <c r="G115" s="64"/>
@@ -13337,12 +13337,12 @@
       <c r="Q115" s="89"/>
     </row>
     <row r="116" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A116" s="229" t="s">
+      <c r="A116" s="200" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="230"/>
-      <c r="C116" s="230"/>
-      <c r="D116" s="231"/>
+      <c r="B116" s="201"/>
+      <c r="C116" s="201"/>
+      <c r="D116" s="202"/>
       <c r="E116" s="64"/>
       <c r="F116" s="64"/>
       <c r="G116" s="64"/>
@@ -13411,12 +13411,12 @@
       <c r="Q119" s="89"/>
     </row>
     <row r="120" spans="1:17" s="93" customFormat="1" ht="24">
-      <c r="A120" s="189" t="s">
+      <c r="A120" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="196"/>
-      <c r="C120" s="196"/>
-      <c r="D120" s="190"/>
+      <c r="B120" s="192"/>
+      <c r="C120" s="192"/>
+      <c r="D120" s="193"/>
       <c r="E120" s="27" t="s">
         <v>555</v>
       </c>
@@ -13446,12 +13446,12 @@
       <c r="Q120" s="89"/>
     </row>
     <row r="121" spans="1:17" s="90" customFormat="1" ht="24">
-      <c r="A121" s="226" t="s">
+      <c r="A121" s="194" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="227"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="228"/>
+      <c r="B121" s="195"/>
+      <c r="C121" s="195"/>
+      <c r="D121" s="196"/>
       <c r="E121" s="80" t="s">
         <v>618</v>
       </c>
@@ -13481,10 +13481,10 @@
       <c r="D122" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="E122" s="238" t="s">
+      <c r="E122" s="187" t="s">
         <v>585</v>
       </c>
-      <c r="F122" s="239"/>
+      <c r="F122" s="188"/>
       <c r="G122" s="80" t="s">
         <v>586</v>
       </c>
@@ -13508,10 +13508,10 @@
       <c r="D123" s="103" t="s">
         <v>587</v>
       </c>
-      <c r="E123" s="238" t="s">
+      <c r="E123" s="187" t="s">
         <v>585</v>
       </c>
-      <c r="F123" s="239"/>
+      <c r="F123" s="188"/>
       <c r="G123" s="80" t="s">
         <v>588</v>
       </c>
@@ -13558,12 +13558,12 @@
       <c r="Q124" s="89"/>
     </row>
     <row r="125" spans="1:17" s="90" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="226" t="s">
+      <c r="A125" s="194" t="s">
         <v>243</v>
       </c>
-      <c r="B125" s="227"/>
-      <c r="C125" s="227"/>
-      <c r="D125" s="228"/>
+      <c r="B125" s="195"/>
+      <c r="C125" s="195"/>
+      <c r="D125" s="196"/>
       <c r="E125" s="80" t="s">
         <v>244</v>
       </c>
@@ -13587,12 +13587,12 @@
       <c r="Q125" s="89"/>
     </row>
     <row r="126" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A126" s="235" t="s">
+      <c r="A126" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B126" s="236"/>
-      <c r="C126" s="236"/>
-      <c r="D126" s="237"/>
+      <c r="B126" s="180"/>
+      <c r="C126" s="180"/>
+      <c r="D126" s="181"/>
       <c r="E126" s="80" t="s">
         <v>212</v>
       </c>
@@ -13676,12 +13676,12 @@
       <c r="Q128" s="89"/>
     </row>
     <row r="129" spans="1:17" s="90" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A129" s="226" t="s">
+      <c r="A129" s="194" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="227"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="228"/>
+      <c r="B129" s="195"/>
+      <c r="C129" s="195"/>
+      <c r="D129" s="196"/>
       <c r="E129" s="80"/>
       <c r="F129" s="80"/>
       <c r="G129" s="80"/>
@@ -13699,12 +13699,12 @@
       <c r="Q129" s="89"/>
     </row>
     <row r="130" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A130" s="235" t="s">
+      <c r="A130" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B130" s="236"/>
-      <c r="C130" s="236"/>
-      <c r="D130" s="237"/>
+      <c r="B130" s="180"/>
+      <c r="C130" s="180"/>
+      <c r="D130" s="181"/>
       <c r="E130" s="80" t="s">
         <v>200</v>
       </c>
@@ -13755,12 +13755,12 @@
       <c r="Q131" s="89"/>
     </row>
     <row r="132" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A132" s="235" t="s">
+      <c r="A132" s="179" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="236"/>
-      <c r="C132" s="236"/>
-      <c r="D132" s="237"/>
+      <c r="B132" s="180"/>
+      <c r="C132" s="180"/>
+      <c r="D132" s="181"/>
       <c r="E132" s="80" t="s">
         <v>261</v>
       </c>
@@ -13784,12 +13784,12 @@
       <c r="Q132" s="89"/>
     </row>
     <row r="133" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A133" s="235" t="s">
+      <c r="A133" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="236"/>
-      <c r="C133" s="236"/>
-      <c r="D133" s="237"/>
+      <c r="B133" s="180"/>
+      <c r="C133" s="180"/>
+      <c r="D133" s="181"/>
       <c r="E133" s="80" t="s">
         <v>265</v>
       </c>
@@ -13813,12 +13813,12 @@
       <c r="Q133" s="89"/>
     </row>
     <row r="134" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A134" s="235" t="s">
+      <c r="A134" s="179" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="242"/>
-      <c r="C134" s="242"/>
-      <c r="D134" s="243"/>
+      <c r="B134" s="182"/>
+      <c r="C134" s="182"/>
+      <c r="D134" s="183"/>
       <c r="E134" s="113" t="s">
         <v>268</v>
       </c>
@@ -13842,12 +13842,12 @@
       <c r="Q134" s="117"/>
     </row>
     <row r="135" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A135" s="235" t="s">
+      <c r="A135" s="179" t="s">
         <v>271</v>
       </c>
-      <c r="B135" s="242"/>
-      <c r="C135" s="242"/>
-      <c r="D135" s="243"/>
+      <c r="B135" s="182"/>
+      <c r="C135" s="182"/>
+      <c r="D135" s="183"/>
       <c r="E135" s="113" t="s">
         <v>272</v>
       </c>
@@ -13869,12 +13869,12 @@
       <c r="Q135" s="117"/>
     </row>
     <row r="136" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A136" s="235" t="s">
+      <c r="A136" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="B136" s="242"/>
-      <c r="C136" s="242"/>
-      <c r="D136" s="243"/>
+      <c r="B136" s="182"/>
+      <c r="C136" s="182"/>
+      <c r="D136" s="183"/>
       <c r="E136" s="113" t="s">
         <v>275</v>
       </c>
@@ -13884,7 +13884,7 @@
       <c r="G136" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="H136" s="240" t="s">
+      <c r="H136" s="189" t="s">
         <v>277</v>
       </c>
       <c r="I136" s="114"/>
@@ -13898,12 +13898,12 @@
       <c r="Q136" s="117"/>
     </row>
     <row r="137" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A137" s="235" t="s">
+      <c r="A137" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="B137" s="242"/>
-      <c r="C137" s="242"/>
-      <c r="D137" s="243"/>
+      <c r="B137" s="182"/>
+      <c r="C137" s="182"/>
+      <c r="D137" s="183"/>
       <c r="E137" s="113" t="s">
         <v>279</v>
       </c>
@@ -13913,7 +13913,7 @@
       <c r="G137" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="H137" s="241"/>
+      <c r="H137" s="190"/>
       <c r="I137" s="114"/>
       <c r="J137" s="99"/>
       <c r="K137" s="115"/>
@@ -13925,12 +13925,12 @@
       <c r="Q137" s="117"/>
     </row>
     <row r="138" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A138" s="235" t="s">
+      <c r="A138" s="179" t="s">
         <v>281</v>
       </c>
-      <c r="B138" s="242"/>
-      <c r="C138" s="242"/>
-      <c r="D138" s="243"/>
+      <c r="B138" s="182"/>
+      <c r="C138" s="182"/>
+      <c r="D138" s="183"/>
       <c r="E138" s="113" t="s">
         <v>282</v>
       </c>
@@ -13952,12 +13952,12 @@
       <c r="Q138" s="117"/>
     </row>
     <row r="139" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A139" s="235" t="s">
+      <c r="A139" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="B139" s="242"/>
-      <c r="C139" s="242"/>
-      <c r="D139" s="243"/>
+      <c r="B139" s="182"/>
+      <c r="C139" s="182"/>
+      <c r="D139" s="183"/>
       <c r="E139" s="113" t="s">
         <v>285</v>
       </c>
@@ -13979,12 +13979,12 @@
       <c r="Q139" s="117"/>
     </row>
     <row r="140" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A140" s="235" t="s">
+      <c r="A140" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="B140" s="242"/>
-      <c r="C140" s="242"/>
-      <c r="D140" s="243"/>
+      <c r="B140" s="182"/>
+      <c r="C140" s="182"/>
+      <c r="D140" s="183"/>
       <c r="E140" s="113" t="s">
         <v>288</v>
       </c>
@@ -14006,12 +14006,12 @@
       <c r="Q140" s="117"/>
     </row>
     <row r="141" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A141" s="235" t="s">
+      <c r="A141" s="179" t="s">
         <v>290</v>
       </c>
-      <c r="B141" s="242"/>
-      <c r="C141" s="242"/>
-      <c r="D141" s="243"/>
+      <c r="B141" s="182"/>
+      <c r="C141" s="182"/>
+      <c r="D141" s="183"/>
       <c r="E141" s="113" t="s">
         <v>291</v>
       </c>
@@ -14033,12 +14033,12 @@
       <c r="Q141" s="117"/>
     </row>
     <row r="142" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A142" s="235" t="s">
+      <c r="A142" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="B142" s="242"/>
-      <c r="C142" s="242"/>
-      <c r="D142" s="243"/>
+      <c r="B142" s="182"/>
+      <c r="C142" s="182"/>
+      <c r="D142" s="183"/>
       <c r="E142" s="113" t="s">
         <v>294</v>
       </c>
@@ -14060,12 +14060,12 @@
       <c r="Q142" s="117"/>
     </row>
     <row r="143" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A143" s="235" t="s">
+      <c r="A143" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="B143" s="242"/>
-      <c r="C143" s="242"/>
-      <c r="D143" s="243"/>
+      <c r="B143" s="182"/>
+      <c r="C143" s="182"/>
+      <c r="D143" s="183"/>
       <c r="E143" s="113" t="s">
         <v>297</v>
       </c>
@@ -14087,17 +14087,17 @@
       <c r="Q143" s="117"/>
     </row>
     <row r="144" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A144" s="235" t="s">
+      <c r="A144" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="B144" s="242"/>
-      <c r="C144" s="242"/>
-      <c r="D144" s="243"/>
-      <c r="E144" s="244" t="s">
+      <c r="B144" s="182"/>
+      <c r="C144" s="182"/>
+      <c r="D144" s="183"/>
+      <c r="E144" s="184" t="s">
         <v>300</v>
       </c>
-      <c r="F144" s="245"/>
-      <c r="G144" s="246"/>
+      <c r="F144" s="185"/>
+      <c r="G144" s="186"/>
       <c r="H144" s="114"/>
       <c r="I144" s="114"/>
       <c r="J144" s="99"/>
@@ -14110,17 +14110,17 @@
       <c r="Q144" s="117"/>
     </row>
     <row r="145" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A145" s="235" t="s">
+      <c r="A145" s="179" t="s">
         <v>301</v>
       </c>
-      <c r="B145" s="242"/>
-      <c r="C145" s="242"/>
-      <c r="D145" s="243"/>
-      <c r="E145" s="244" t="s">
+      <c r="B145" s="182"/>
+      <c r="C145" s="182"/>
+      <c r="D145" s="183"/>
+      <c r="E145" s="184" t="s">
         <v>302</v>
       </c>
-      <c r="F145" s="245"/>
-      <c r="G145" s="246"/>
+      <c r="F145" s="185"/>
+      <c r="G145" s="186"/>
       <c r="H145" s="114"/>
       <c r="I145" s="114"/>
       <c r="J145" s="99"/>
@@ -14133,17 +14133,17 @@
       <c r="Q145" s="117"/>
     </row>
     <row r="146" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A146" s="235" t="s">
+      <c r="A146" s="179" t="s">
         <v>303</v>
       </c>
-      <c r="B146" s="242"/>
-      <c r="C146" s="242"/>
-      <c r="D146" s="243"/>
-      <c r="E146" s="244" t="s">
+      <c r="B146" s="182"/>
+      <c r="C146" s="182"/>
+      <c r="D146" s="183"/>
+      <c r="E146" s="184" t="s">
         <v>304</v>
       </c>
-      <c r="F146" s="245"/>
-      <c r="G146" s="246"/>
+      <c r="F146" s="185"/>
+      <c r="G146" s="186"/>
       <c r="H146" s="114"/>
       <c r="I146" s="114"/>
       <c r="J146" s="99"/>
@@ -14156,17 +14156,17 @@
       <c r="Q146" s="117"/>
     </row>
     <row r="147" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A147" s="235" t="s">
+      <c r="A147" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="B147" s="242"/>
-      <c r="C147" s="242"/>
-      <c r="D147" s="243"/>
-      <c r="E147" s="244" t="s">
+      <c r="B147" s="182"/>
+      <c r="C147" s="182"/>
+      <c r="D147" s="183"/>
+      <c r="E147" s="184" t="s">
         <v>306</v>
       </c>
-      <c r="F147" s="245"/>
-      <c r="G147" s="246"/>
+      <c r="F147" s="185"/>
+      <c r="G147" s="186"/>
       <c r="H147" s="114"/>
       <c r="I147" s="114"/>
       <c r="J147" s="99"/>
@@ -14179,17 +14179,17 @@
       <c r="Q147" s="117"/>
     </row>
     <row r="148" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A148" s="235" t="s">
+      <c r="A148" s="179" t="s">
         <v>307</v>
       </c>
-      <c r="B148" s="242"/>
-      <c r="C148" s="242"/>
-      <c r="D148" s="243"/>
-      <c r="E148" s="244" t="s">
+      <c r="B148" s="182"/>
+      <c r="C148" s="182"/>
+      <c r="D148" s="183"/>
+      <c r="E148" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="F148" s="245"/>
-      <c r="G148" s="246"/>
+      <c r="F148" s="185"/>
+      <c r="G148" s="186"/>
       <c r="H148" s="114"/>
       <c r="I148" s="114"/>
       <c r="J148" s="99"/>
@@ -14202,17 +14202,17 @@
       <c r="Q148" s="117"/>
     </row>
     <row r="149" spans="1:17" s="118" customFormat="1" ht="12.75">
-      <c r="A149" s="235" t="s">
+      <c r="A149" s="179" t="s">
         <v>309</v>
       </c>
-      <c r="B149" s="242"/>
-      <c r="C149" s="242"/>
-      <c r="D149" s="243"/>
-      <c r="E149" s="244" t="s">
+      <c r="B149" s="182"/>
+      <c r="C149" s="182"/>
+      <c r="D149" s="183"/>
+      <c r="E149" s="184" t="s">
         <v>310</v>
       </c>
-      <c r="F149" s="245"/>
-      <c r="G149" s="246"/>
+      <c r="F149" s="185"/>
+      <c r="G149" s="186"/>
       <c r="H149" s="114"/>
       <c r="I149" s="114"/>
       <c r="J149" s="99"/>
@@ -14245,12 +14245,12 @@
       <c r="Q151" s="89"/>
     </row>
     <row r="152" spans="1:17" s="93" customFormat="1" ht="24">
-      <c r="A152" s="253" t="s">
+      <c r="A152" s="176" t="s">
         <v>312</v>
       </c>
-      <c r="B152" s="254"/>
-      <c r="C152" s="254"/>
-      <c r="D152" s="255"/>
+      <c r="B152" s="177"/>
+      <c r="C152" s="177"/>
+      <c r="D152" s="178"/>
       <c r="E152" s="27" t="s">
         <v>555</v>
       </c>
@@ -14280,12 +14280,12 @@
       <c r="Q152" s="89"/>
     </row>
     <row r="153" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A153" s="250" t="s">
+      <c r="A153" s="173" t="s">
         <v>595</v>
       </c>
-      <c r="B153" s="251"/>
-      <c r="C153" s="251"/>
-      <c r="D153" s="252"/>
+      <c r="B153" s="174"/>
+      <c r="C153" s="174"/>
+      <c r="D153" s="175"/>
       <c r="E153" s="119"/>
       <c r="F153" s="119"/>
       <c r="G153" s="119"/>
@@ -14301,12 +14301,12 @@
       <c r="Q153" s="89"/>
     </row>
     <row r="154" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A154" s="250" t="s">
+      <c r="A154" s="173" t="s">
         <v>594</v>
       </c>
-      <c r="B154" s="251"/>
-      <c r="C154" s="251"/>
-      <c r="D154" s="252"/>
+      <c r="B154" s="174"/>
+      <c r="C154" s="174"/>
+      <c r="D154" s="175"/>
       <c r="E154" s="119"/>
       <c r="F154" s="119"/>
       <c r="G154" s="119"/>
@@ -14322,10 +14322,10 @@
       <c r="Q154" s="89"/>
     </row>
     <row r="155" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A155" s="250"/>
-      <c r="B155" s="251"/>
-      <c r="C155" s="251"/>
-      <c r="D155" s="252"/>
+      <c r="A155" s="173"/>
+      <c r="B155" s="174"/>
+      <c r="C155" s="174"/>
+      <c r="D155" s="175"/>
       <c r="E155" s="119"/>
       <c r="F155" s="119"/>
       <c r="G155" s="119"/>
@@ -14341,10 +14341,10 @@
       <c r="Q155" s="89"/>
     </row>
     <row r="156" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A156" s="250"/>
-      <c r="B156" s="251"/>
-      <c r="C156" s="251"/>
-      <c r="D156" s="252"/>
+      <c r="A156" s="173"/>
+      <c r="B156" s="174"/>
+      <c r="C156" s="174"/>
+      <c r="D156" s="175"/>
       <c r="E156" s="119"/>
       <c r="F156" s="119"/>
       <c r="G156" s="119"/>
@@ -14379,12 +14379,12 @@
       <c r="Q158" s="89"/>
     </row>
     <row r="159" spans="1:17" s="93" customFormat="1" ht="24">
-      <c r="A159" s="253" t="s">
+      <c r="A159" s="176" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="254"/>
-      <c r="C159" s="254"/>
-      <c r="D159" s="255"/>
+      <c r="B159" s="177"/>
+      <c r="C159" s="177"/>
+      <c r="D159" s="178"/>
       <c r="E159" s="27" t="s">
         <v>555</v>
       </c>
@@ -14414,12 +14414,12 @@
       <c r="Q159" s="89"/>
     </row>
     <row r="160" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A160" s="235" t="s">
+      <c r="A160" s="179" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="236"/>
-      <c r="C160" s="236"/>
-      <c r="D160" s="237"/>
+      <c r="B160" s="180"/>
+      <c r="C160" s="180"/>
+      <c r="D160" s="181"/>
       <c r="E160" s="119" t="s">
         <v>319</v>
       </c>
@@ -14441,12 +14441,12 @@
       <c r="Q160" s="89"/>
     </row>
     <row r="161" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A161" s="235" t="s">
+      <c r="A161" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="B161" s="236"/>
-      <c r="C161" s="236"/>
-      <c r="D161" s="237"/>
+      <c r="B161" s="180"/>
+      <c r="C161" s="180"/>
+      <c r="D161" s="181"/>
       <c r="E161" s="119" t="s">
         <v>265</v>
       </c>
@@ -14468,12 +14468,12 @@
       <c r="Q161" s="89"/>
     </row>
     <row r="162" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A162" s="235" t="s">
+      <c r="A162" s="179" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="236"/>
-      <c r="C162" s="236"/>
-      <c r="D162" s="237"/>
+      <c r="B162" s="180"/>
+      <c r="C162" s="180"/>
+      <c r="D162" s="181"/>
       <c r="E162" s="119" t="s">
         <v>265</v>
       </c>
@@ -14507,12 +14507,12 @@
       <c r="Q164" s="89"/>
     </row>
     <row r="165" spans="1:17" s="93" customFormat="1" ht="24">
-      <c r="A165" s="253" t="s">
+      <c r="A165" s="176" t="s">
         <v>324</v>
       </c>
-      <c r="B165" s="254"/>
-      <c r="C165" s="254"/>
-      <c r="D165" s="255"/>
+      <c r="B165" s="177"/>
+      <c r="C165" s="177"/>
+      <c r="D165" s="178"/>
       <c r="E165" s="27" t="s">
         <v>555</v>
       </c>
@@ -14542,12 +14542,12 @@
       <c r="Q165" s="89"/>
     </row>
     <row r="166" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A166" s="247" t="s">
+      <c r="A166" s="170" t="s">
         <v>325</v>
       </c>
-      <c r="B166" s="248"/>
-      <c r="C166" s="248"/>
-      <c r="D166" s="249"/>
+      <c r="B166" s="171"/>
+      <c r="C166" s="171"/>
+      <c r="D166" s="172"/>
       <c r="E166" s="121" t="s">
         <v>326</v>
       </c>
@@ -14628,150 +14628,6 @@
     </row>
   </sheetData>
   <mergeCells count="168">
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="A156:D156"/>
-    <mergeCell ref="A159:D159"/>
-    <mergeCell ref="A160:D160"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A165:D165"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="E149:G149"/>
-    <mergeCell ref="A152:D152"/>
-    <mergeCell ref="A153:D153"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:G146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:G147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="E148:G148"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="E144:G144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="E145:G145"/>
-    <mergeCell ref="E122:F122"/>
-    <mergeCell ref="E123:F123"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="M69:M70"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="K42:K44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
@@ -14796,6 +14652,150 @@
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="K42:K44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="M69:M70"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="E122:F122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:G147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="E148:G148"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:G144"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="E145:G145"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="A156:D156"/>
+    <mergeCell ref="A159:D159"/>
+    <mergeCell ref="A160:D160"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A165:D165"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="E149:G149"/>
+    <mergeCell ref="A152:D152"/>
+    <mergeCell ref="A153:D153"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A155:D155"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
@@ -14833,11 +14833,11 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="170" t="s">
+      <c r="A3" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="172"/>
+      <c r="B3" s="249"/>
+      <c r="C3" s="250"/>
       <c r="D3" s="10" t="s">
         <v>597</v>
       </c>
@@ -14852,11 +14852,11 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="173" t="s">
+      <c r="A4" s="243" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="245"/>
       <c r="D4" s="11" t="s">
         <v>45</v>
       </c>
@@ -14869,11 +14869,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="243" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="245"/>
       <c r="D5" s="11" t="s">
         <v>790</v>
       </c>
@@ -14884,11 +14884,11 @@
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="173" t="s">
+      <c r="A6" s="243" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="174"/>
-      <c r="C6" s="175"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="245"/>
       <c r="D6" s="15" t="s">
         <v>49</v>
       </c>
@@ -14899,11 +14899,11 @@
       <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="243" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="175"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="245"/>
       <c r="D7" s="11" t="s">
         <v>52</v>
       </c>
@@ -14914,11 +14914,11 @@
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="175"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="245"/>
       <c r="D8" s="11" t="s">
         <v>55</v>
       </c>
@@ -14929,11 +14929,11 @@
       <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="173" t="s">
+      <c r="A9" s="243" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="175"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="16" t="s">
         <v>58</v>
       </c>
@@ -14946,13 +14946,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="B10" s="174" t="s">
+      <c r="B10" s="244" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="175"/>
+      <c r="C10" s="245"/>
       <c r="D10" s="16" t="s">
         <v>63</v>
       </c>
@@ -14963,13 +14963,13 @@
       <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="243" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="175"/>
+      <c r="C11" s="245"/>
       <c r="D11" s="16" t="s">
         <v>59</v>
       </c>
@@ -14980,11 +14980,11 @@
       <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="243" t="s">
         <v>66</v>
       </c>
-      <c r="B12" s="174"/>
-      <c r="C12" s="175"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="245"/>
       <c r="D12" s="15" t="s">
         <v>601</v>
       </c>
@@ -14997,39 +14997,39 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="173" t="s">
+      <c r="A13" s="243" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="174"/>
-      <c r="C13" s="175"/>
-      <c r="D13" s="183" t="s">
+      <c r="B13" s="244"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="254" t="s">
         <v>604</v>
       </c>
-      <c r="E13" s="184"/>
+      <c r="E13" s="255"/>
       <c r="F13" s="12"/>
       <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7" ht="24">
-      <c r="A14" s="173" t="s">
+      <c r="A14" s="243" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="174"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="179" t="s">
+      <c r="B14" s="244"/>
+      <c r="C14" s="245"/>
+      <c r="D14" s="252" t="s">
         <v>608</v>
       </c>
-      <c r="E14" s="180"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="12"/>
       <c r="G14" s="17" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="173" t="s">
+      <c r="A15" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="174"/>
-      <c r="C15" s="175"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="245"/>
       <c r="D15" s="18" t="s">
         <v>71</v>
       </c>
@@ -15042,11 +15042,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="245"/>
       <c r="D16" s="15" t="s">
         <v>605</v>
       </c>
@@ -15059,43 +15059,43 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="256" t="s">
+      <c r="B17" s="244"/>
+      <c r="C17" s="245"/>
+      <c r="D17" s="258" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="257"/>
+      <c r="E17" s="259"/>
       <c r="F17" s="12"/>
       <c r="G17" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="174"/>
-      <c r="C18" s="175" t="s">
+      <c r="B18" s="244"/>
+      <c r="C18" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="258" t="s">
+      <c r="D18" s="256" t="s">
         <v>606</v>
       </c>
-      <c r="E18" s="259"/>
+      <c r="E18" s="257"/>
       <c r="F18" s="12"/>
       <c r="G18" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
+      <c r="B19" s="244"/>
+      <c r="C19" s="245"/>
       <c r="D19" s="15" t="s">
         <v>572</v>
       </c>
@@ -15108,11 +15108,11 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="243" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175"/>
+      <c r="B20" s="244"/>
+      <c r="C20" s="245"/>
       <c r="D20" s="15" t="s">
         <v>572</v>
       </c>
@@ -15125,11 +15125,11 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="173" t="s">
+      <c r="A21" s="243" t="s">
         <v>82</v>
       </c>
-      <c r="B21" s="174"/>
-      <c r="C21" s="175"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="245"/>
       <c r="D21" s="15" t="s">
         <v>572</v>
       </c>
@@ -15142,15 +15142,15 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="173" t="s">
+      <c r="A22" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="174"/>
-      <c r="C22" s="175"/>
-      <c r="D22" s="181" t="s">
+      <c r="B22" s="244"/>
+      <c r="C22" s="245"/>
+      <c r="D22" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="182"/>
+      <c r="E22" s="242"/>
       <c r="F22" s="12"/>
       <c r="G22" s="13" t="s">
         <v>67</v>
@@ -15158,45 +15158,45 @@
       <c r="H22" s="19"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="243" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="174"/>
-      <c r="C23" s="175"/>
-      <c r="D23" s="181" t="s">
+      <c r="B23" s="244"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="182"/>
+      <c r="E23" s="242"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="243" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="175"/>
-      <c r="D24" s="181" t="s">
+      <c r="B24" s="244"/>
+      <c r="C24" s="245"/>
+      <c r="D24" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="182"/>
+      <c r="E24" s="242"/>
       <c r="F24" s="12"/>
       <c r="G24" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="243" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="174"/>
-      <c r="C25" s="175"/>
-      <c r="D25" s="181" t="s">
+      <c r="B25" s="244"/>
+      <c r="C25" s="245"/>
+      <c r="D25" s="241" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="182"/>
+      <c r="E25" s="242"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13" t="s">
         <v>67</v>
@@ -15220,10 +15220,10 @@
       <c r="A29" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B29" s="189" t="s">
+      <c r="B29" s="191" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="190"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="27" t="s">
         <v>91</v>
       </c>
@@ -15252,10 +15252,10 @@
       <c r="A30" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="187" t="s">
+      <c r="B30" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="188"/>
+      <c r="C30" s="240"/>
       <c r="D30" s="29" t="s">
         <v>97</v>
       </c>
@@ -15280,10 +15280,10 @@
       <c r="A31" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="187" t="s">
+      <c r="B31" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="240"/>
       <c r="D31" s="29" t="s">
         <v>103</v>
       </c>
@@ -15304,10 +15304,10 @@
       <c r="A32" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="187" t="s">
+      <c r="B32" s="239" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="188"/>
+      <c r="C32" s="240"/>
       <c r="D32" s="29"/>
       <c r="E32" s="30" t="s">
         <v>106</v>
@@ -15326,10 +15326,10 @@
       <c r="A33" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B33" s="187" t="s">
+      <c r="B33" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="188"/>
+      <c r="C33" s="240"/>
       <c r="D33" s="29" t="s">
         <v>110</v>
       </c>
@@ -15350,10 +15350,10 @@
       <c r="A34" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="187" t="s">
+      <c r="B34" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="188"/>
+      <c r="C34" s="240"/>
       <c r="D34" s="29" t="s">
         <v>114</v>
       </c>
@@ -15374,10 +15374,10 @@
       <c r="A35" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B35" s="187" t="s">
+      <c r="B35" s="239" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="188"/>
+      <c r="C35" s="240"/>
       <c r="D35" s="29" t="s">
         <v>118</v>
       </c>
@@ -15400,10 +15400,10 @@
       <c r="A36" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="187" t="s">
+      <c r="B36" s="239" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="188"/>
+      <c r="C36" s="240"/>
       <c r="D36" s="29" t="s">
         <v>123</v>
       </c>
@@ -15426,8 +15426,8 @@
       <c r="A37" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="189"/>
-      <c r="C37" s="190"/>
+      <c r="B37" s="191"/>
+      <c r="C37" s="193"/>
       <c r="D37" s="27"/>
       <c r="E37" s="42"/>
       <c r="F37" s="42"/>
@@ -15456,10 +15456,10 @@
       <c r="A41" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="189" t="s">
+      <c r="B41" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="190"/>
+      <c r="C41" s="193"/>
       <c r="D41" s="27" t="s">
         <v>91</v>
       </c>
@@ -15492,8 +15492,8 @@
       <c r="A42" s="44" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="191"/>
-      <c r="C42" s="192"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="229"/>
       <c r="D42" s="45"/>
       <c r="E42" s="138" t="s">
         <v>680</v>
@@ -15502,11 +15502,11 @@
         <v>683</v>
       </c>
       <c r="G42" s="46"/>
-      <c r="H42" s="198" t="s">
+      <c r="H42" s="233" t="s">
         <v>609</v>
       </c>
       <c r="I42" s="33"/>
-      <c r="J42" s="201" t="s">
+      <c r="J42" s="236" t="s">
         <v>134</v>
       </c>
       <c r="K42" s="35"/>
@@ -15516,8 +15516,8 @@
       <c r="A43" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B43" s="191"/>
-      <c r="C43" s="192"/>
+      <c r="B43" s="228"/>
+      <c r="C43" s="229"/>
       <c r="D43" s="45"/>
       <c r="E43" s="138" t="s">
         <v>681</v>
@@ -15526,9 +15526,9 @@
         <v>684</v>
       </c>
       <c r="G43" s="46"/>
-      <c r="H43" s="199"/>
+      <c r="H43" s="234"/>
       <c r="I43" s="33"/>
-      <c r="J43" s="202"/>
+      <c r="J43" s="237"/>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
     </row>
@@ -15536,8 +15536,8 @@
       <c r="A44" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="191"/>
-      <c r="C44" s="192"/>
+      <c r="B44" s="228"/>
+      <c r="C44" s="229"/>
       <c r="D44" s="45"/>
       <c r="E44" s="138" t="s">
         <v>682</v>
@@ -15546,9 +15546,9 @@
         <v>685</v>
       </c>
       <c r="G44" s="46"/>
-      <c r="H44" s="199"/>
+      <c r="H44" s="234"/>
       <c r="I44" s="33"/>
-      <c r="J44" s="203"/>
+      <c r="J44" s="238"/>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
     </row>
@@ -15556,8 +15556,8 @@
       <c r="A45" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B45" s="191"/>
-      <c r="C45" s="192"/>
+      <c r="B45" s="228"/>
+      <c r="C45" s="229"/>
       <c r="D45" s="45"/>
       <c r="E45" s="139" t="s">
         <v>686</v>
@@ -15566,7 +15566,7 @@
         <v>686</v>
       </c>
       <c r="G45" s="46"/>
-      <c r="H45" s="200"/>
+      <c r="H45" s="235"/>
       <c r="I45" s="33"/>
       <c r="J45" s="140" t="s">
         <v>610</v>
@@ -15576,8 +15576,8 @@
     </row>
     <row r="46" spans="1:12" s="26" customFormat="1" ht="12">
       <c r="A46" s="44"/>
-      <c r="B46" s="191"/>
-      <c r="C46" s="192"/>
+      <c r="B46" s="228"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="44"/>
       <c r="E46" s="47"/>
       <c r="F46" s="47"/>
@@ -15590,8 +15590,8 @@
     </row>
     <row r="47" spans="1:12" s="26" customFormat="1" ht="12">
       <c r="A47" s="44"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="192"/>
+      <c r="B47" s="228"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="44"/>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -15606,13 +15606,13 @@
       <c r="A48" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="193"/>
-      <c r="C48" s="194"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="231"/>
       <c r="D48" s="43"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="195"/>
-      <c r="G48" s="195"/>
-      <c r="H48" s="194"/>
+      <c r="E48" s="230"/>
+      <c r="F48" s="232"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="231"/>
       <c r="I48" s="43"/>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
@@ -15644,12 +15644,12 @@
       <c r="C51" s="20"/>
     </row>
     <row r="52" spans="1:12" s="26" customFormat="1" ht="12">
-      <c r="A52" s="189" t="s">
+      <c r="A52" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="190"/>
+      <c r="B52" s="192"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="193"/>
       <c r="E52" s="27" t="s">
         <v>600</v>
       </c>
@@ -15658,41 +15658,41 @@
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="53"/>
-      <c r="I52" s="176" t="s">
+      <c r="I52" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="J52" s="176" t="s">
+      <c r="J52" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="K52" s="176" t="s">
+      <c r="K52" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="L52" s="176" t="s">
+      <c r="L52" s="212" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:12" s="26" customFormat="1" ht="12">
-      <c r="A53" s="207" t="s">
+      <c r="A53" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="208"/>
-      <c r="C53" s="208"/>
-      <c r="D53" s="209"/>
+      <c r="B53" s="226"/>
+      <c r="C53" s="226"/>
+      <c r="D53" s="227"/>
       <c r="E53" s="54"/>
       <c r="F53" s="54"/>
       <c r="G53" s="54"/>
       <c r="H53" s="54"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="206"/>
-      <c r="K53" s="206"/>
-      <c r="L53" s="206"/>
+      <c r="I53" s="215"/>
+      <c r="J53" s="213"/>
+      <c r="K53" s="213"/>
+      <c r="L53" s="213"/>
     </row>
     <row r="54" spans="1:12" ht="14.25">
-      <c r="A54" s="204" t="s">
+      <c r="A54" s="217" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="205"/>
-      <c r="C54" s="205"/>
+      <c r="B54" s="218"/>
+      <c r="C54" s="218"/>
       <c r="D54" s="55" t="s">
         <v>146</v>
       </c>
@@ -15714,11 +15714,11 @@
       <c r="L54" s="57"/>
     </row>
     <row r="55" spans="1:12" ht="14.25">
-      <c r="A55" s="204" t="s">
+      <c r="A55" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
+      <c r="B55" s="218"/>
+      <c r="C55" s="218"/>
       <c r="D55" s="55" t="s">
         <v>146</v>
       </c>
@@ -15736,11 +15736,11 @@
       <c r="L55" s="57"/>
     </row>
     <row r="56" spans="1:12" ht="14.25">
-      <c r="A56" s="204" t="s">
+      <c r="A56" s="217" t="s">
         <v>153</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
+      <c r="B56" s="218"/>
+      <c r="C56" s="218"/>
       <c r="D56" s="55" t="s">
         <v>146</v>
       </c>
@@ -15758,11 +15758,11 @@
       <c r="L56" s="57"/>
     </row>
     <row r="57" spans="1:12" ht="14.25">
-      <c r="A57" s="204" t="s">
+      <c r="A57" s="217" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="205"/>
-      <c r="C57" s="205"/>
+      <c r="B57" s="218"/>
+      <c r="C57" s="218"/>
       <c r="D57" s="55" t="s">
         <v>146</v>
       </c>
@@ -15776,11 +15776,11 @@
       <c r="L57" s="57"/>
     </row>
     <row r="58" spans="1:12" ht="14.25">
-      <c r="A58" s="204" t="s">
+      <c r="A58" s="217" t="s">
         <v>157</v>
       </c>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
+      <c r="B58" s="218"/>
+      <c r="C58" s="218"/>
       <c r="D58" s="55" t="s">
         <v>146</v>
       </c>
@@ -15794,11 +15794,11 @@
       <c r="L58" s="57"/>
     </row>
     <row r="59" spans="1:12" ht="14.25">
-      <c r="A59" s="204" t="s">
+      <c r="A59" s="217" t="s">
         <v>158</v>
       </c>
-      <c r="B59" s="205"/>
-      <c r="C59" s="205"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="218"/>
       <c r="D59" s="55" t="s">
         <v>146</v>
       </c>
@@ -15816,11 +15816,11 @@
       <c r="L59" s="57"/>
     </row>
     <row r="60" spans="1:12" ht="14.25">
-      <c r="A60" s="204" t="s">
+      <c r="A60" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="B60" s="205"/>
-      <c r="C60" s="205"/>
+      <c r="B60" s="218"/>
+      <c r="C60" s="218"/>
       <c r="D60" s="55" t="s">
         <v>146</v>
       </c>
@@ -15838,11 +15838,11 @@
       <c r="L60" s="57"/>
     </row>
     <row r="61" spans="1:12" ht="14.25">
-      <c r="A61" s="204" t="s">
+      <c r="A61" s="217" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="205"/>
-      <c r="C61" s="205"/>
+      <c r="B61" s="218"/>
+      <c r="C61" s="218"/>
       <c r="D61" s="55" t="s">
         <v>146</v>
       </c>
@@ -15856,11 +15856,11 @@
       <c r="L61" s="57"/>
     </row>
     <row r="62" spans="1:12" ht="14.25">
-      <c r="A62" s="204" t="s">
+      <c r="A62" s="217" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
+      <c r="B62" s="218"/>
+      <c r="C62" s="218"/>
       <c r="D62" s="55" t="s">
         <v>146</v>
       </c>
@@ -15878,11 +15878,11 @@
       <c r="L62" s="57"/>
     </row>
     <row r="63" spans="1:12" ht="14.25">
-      <c r="A63" s="204" t="s">
+      <c r="A63" s="217" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="205"/>
-      <c r="C63" s="205"/>
+      <c r="B63" s="218"/>
+      <c r="C63" s="218"/>
       <c r="D63" s="55" t="s">
         <v>146</v>
       </c>
@@ -15900,9 +15900,9 @@
       <c r="L63" s="57"/>
     </row>
     <row r="64" spans="1:12" ht="14.25">
-      <c r="A64" s="211"/>
-      <c r="B64" s="212"/>
-      <c r="C64" s="213"/>
+      <c r="A64" s="219"/>
+      <c r="B64" s="220"/>
+      <c r="C64" s="221"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="55"/>
@@ -15914,9 +15914,9 @@
       <c r="L64" s="57"/>
     </row>
     <row r="65" spans="1:12" ht="14.25">
-      <c r="A65" s="214"/>
-      <c r="B65" s="215"/>
-      <c r="C65" s="216"/>
+      <c r="A65" s="222"/>
+      <c r="B65" s="223"/>
+      <c r="C65" s="224"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="55"/>
@@ -15928,9 +15928,9 @@
       <c r="L65" s="57"/>
     </row>
     <row r="66" spans="1:12" ht="14.25">
-      <c r="A66" s="214"/>
-      <c r="B66" s="215"/>
-      <c r="C66" s="216"/>
+      <c r="A66" s="222"/>
+      <c r="B66" s="223"/>
+      <c r="C66" s="224"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
@@ -15950,12 +15950,12 @@
       <c r="C68" s="63"/>
     </row>
     <row r="69" spans="1:12" s="26" customFormat="1" ht="12">
-      <c r="A69" s="189" t="s">
+      <c r="A69" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="B69" s="196"/>
-      <c r="C69" s="196"/>
-      <c r="D69" s="190"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="193"/>
       <c r="E69" s="27" t="s">
         <v>611</v>
       </c>
@@ -15964,26 +15964,26 @@
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="27"/>
-      <c r="I69" s="176" t="s">
+      <c r="I69" s="212" t="s">
         <v>170</v>
       </c>
-      <c r="J69" s="176" t="s">
+      <c r="J69" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="K69" s="176" t="s">
+      <c r="K69" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="L69" s="176" t="s">
+      <c r="L69" s="212" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="70" spans="1:12" s="26" customFormat="1" ht="12">
-      <c r="A70" s="189" t="s">
+      <c r="A70" s="191" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="196"/>
-      <c r="C70" s="196"/>
-      <c r="D70" s="190"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="192"/>
+      <c r="D70" s="193"/>
       <c r="E70" s="64" t="s">
         <v>172</v>
       </c>
@@ -15992,18 +15992,18 @@
       </c>
       <c r="G70" s="65"/>
       <c r="H70" s="65"/>
-      <c r="I70" s="210"/>
-      <c r="J70" s="206"/>
-      <c r="K70" s="206"/>
-      <c r="L70" s="206"/>
+      <c r="I70" s="216"/>
+      <c r="J70" s="213"/>
+      <c r="K70" s="213"/>
+      <c r="L70" s="213"/>
     </row>
     <row r="71" spans="1:12" s="26" customFormat="1" ht="12">
-      <c r="A71" s="189" t="s">
+      <c r="A71" s="191" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="196"/>
-      <c r="C71" s="196"/>
-      <c r="D71" s="190"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="192"/>
+      <c r="D71" s="193"/>
       <c r="E71" s="64" t="s">
         <v>174</v>
       </c>
@@ -16029,54 +16029,54 @@
       <c r="C73" s="62"/>
     </row>
     <row r="74" spans="1:12" s="26" customFormat="1" ht="12">
-      <c r="A74" s="189" t="s">
+      <c r="A74" s="191" t="s">
         <v>66</v>
       </c>
-      <c r="B74" s="196"/>
-      <c r="C74" s="196"/>
-      <c r="D74" s="190"/>
-      <c r="E74" s="176" t="s">
+      <c r="B74" s="192"/>
+      <c r="C74" s="192"/>
+      <c r="D74" s="193"/>
+      <c r="E74" s="212" t="s">
         <v>612</v>
       </c>
-      <c r="F74" s="176" t="s">
+      <c r="F74" s="212" t="s">
         <v>613</v>
       </c>
-      <c r="G74" s="176"/>
-      <c r="H74" s="176"/>
-      <c r="I74" s="176" t="s">
+      <c r="G74" s="212"/>
+      <c r="H74" s="212"/>
+      <c r="I74" s="212" t="s">
         <v>131</v>
       </c>
-      <c r="J74" s="176" t="s">
+      <c r="J74" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="K74" s="176" t="s">
+      <c r="K74" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="176" t="s">
+      <c r="L74" s="212" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="26" customFormat="1" ht="12" customHeight="1">
-      <c r="A75" s="189" t="s">
+      <c r="A75" s="191" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="196"/>
-      <c r="C75" s="196"/>
-      <c r="D75" s="190"/>
-      <c r="E75" s="177"/>
-      <c r="F75" s="177"/>
-      <c r="G75" s="177"/>
-      <c r="H75" s="177"/>
-      <c r="I75" s="197"/>
-      <c r="J75" s="206"/>
-      <c r="K75" s="206"/>
-      <c r="L75" s="206"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="192"/>
+      <c r="D75" s="193"/>
+      <c r="E75" s="214"/>
+      <c r="F75" s="214"/>
+      <c r="G75" s="214"/>
+      <c r="H75" s="214"/>
+      <c r="I75" s="215"/>
+      <c r="J75" s="213"/>
+      <c r="K75" s="213"/>
+      <c r="L75" s="213"/>
     </row>
     <row r="76" spans="1:12" ht="14.25">
-      <c r="A76" s="217"/>
-      <c r="B76" s="218"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="219"/>
+      <c r="A76" s="209"/>
+      <c r="B76" s="210"/>
+      <c r="C76" s="210"/>
+      <c r="D76" s="211"/>
       <c r="E76" s="69" t="s">
         <v>177</v>
       </c>
@@ -16091,10 +16091,10 @@
       <c r="L76" s="57"/>
     </row>
     <row r="77" spans="1:12" ht="14.25">
-      <c r="A77" s="217"/>
-      <c r="B77" s="218"/>
-      <c r="C77" s="218"/>
-      <c r="D77" s="219"/>
+      <c r="A77" s="209"/>
+      <c r="B77" s="210"/>
+      <c r="C77" s="210"/>
+      <c r="D77" s="211"/>
       <c r="E77" s="69"/>
       <c r="F77" s="69"/>
       <c r="G77" s="57"/>
@@ -16105,12 +16105,12 @@
       <c r="L77" s="57"/>
     </row>
     <row r="78" spans="1:12" ht="14.25">
-      <c r="A78" s="217" t="s">
+      <c r="A78" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="B78" s="218"/>
-      <c r="C78" s="218"/>
-      <c r="D78" s="219"/>
+      <c r="B78" s="210"/>
+      <c r="C78" s="210"/>
+      <c r="D78" s="211"/>
       <c r="E78" s="69" t="s">
         <v>177</v>
       </c>
@@ -16125,12 +16125,12 @@
       <c r="L78" s="57"/>
     </row>
     <row r="79" spans="1:12" ht="14.25">
-      <c r="A79" s="217" t="s">
+      <c r="A79" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="B79" s="218"/>
-      <c r="C79" s="218"/>
-      <c r="D79" s="219"/>
+      <c r="B79" s="210"/>
+      <c r="C79" s="210"/>
+      <c r="D79" s="211"/>
       <c r="E79" s="69" t="s">
         <v>177</v>
       </c>
@@ -16193,12 +16193,12 @@
       <c r="P82" s="75"/>
     </row>
     <row r="83" spans="1:16" s="25" customFormat="1" ht="24">
-      <c r="A83" s="189" t="s">
+      <c r="A83" s="191" t="s">
         <v>181</v>
       </c>
-      <c r="B83" s="196"/>
-      <c r="C83" s="196"/>
-      <c r="D83" s="190"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="192"/>
+      <c r="D83" s="193"/>
       <c r="E83" s="27" t="s">
         <v>611</v>
       </c>
@@ -16369,12 +16369,12 @@
       <c r="P89" s="40"/>
     </row>
     <row r="90" spans="1:16" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A90" s="220" t="s">
+      <c r="A90" s="206" t="s">
         <v>195</v>
       </c>
-      <c r="B90" s="221"/>
-      <c r="C90" s="221"/>
-      <c r="D90" s="222"/>
+      <c r="B90" s="207"/>
+      <c r="C90" s="207"/>
+      <c r="D90" s="208"/>
       <c r="E90" s="80" t="s">
         <v>186</v>
       </c>
@@ -16389,12 +16389,12 @@
       <c r="L90" s="39"/>
     </row>
     <row r="91" spans="1:16" s="40" customFormat="1" ht="12" customHeight="1">
-      <c r="A91" s="226" t="s">
+      <c r="A91" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="227"/>
-      <c r="C91" s="227"/>
-      <c r="D91" s="228"/>
+      <c r="B91" s="195"/>
+      <c r="C91" s="195"/>
+      <c r="D91" s="196"/>
       <c r="E91" s="80" t="s">
         <v>197</v>
       </c>
@@ -16411,12 +16411,12 @@
       <c r="L91" s="39"/>
     </row>
     <row r="92" spans="1:16" s="40" customFormat="1" ht="12.75">
-      <c r="A92" s="220" t="s">
+      <c r="A92" s="206" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="221"/>
-      <c r="C92" s="221"/>
-      <c r="D92" s="222"/>
+      <c r="B92" s="207"/>
+      <c r="C92" s="207"/>
+      <c r="D92" s="208"/>
       <c r="E92" s="80" t="s">
         <v>200</v>
       </c>
@@ -16433,12 +16433,12 @@
       <c r="L92" s="39"/>
     </row>
     <row r="93" spans="1:16" s="40" customFormat="1" ht="12">
-      <c r="A93" s="220" t="s">
+      <c r="A93" s="206" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="221"/>
-      <c r="C93" s="221"/>
-      <c r="D93" s="222"/>
+      <c r="B93" s="207"/>
+      <c r="C93" s="207"/>
+      <c r="D93" s="208"/>
       <c r="E93" s="80" t="s">
         <v>203</v>
       </c>
@@ -16455,12 +16455,12 @@
       <c r="L93" s="39"/>
     </row>
     <row r="94" spans="1:16" s="87" customFormat="1" ht="12">
-      <c r="A94" s="220" t="s">
+      <c r="A94" s="206" t="s">
         <v>206</v>
       </c>
-      <c r="B94" s="221"/>
-      <c r="C94" s="221"/>
-      <c r="D94" s="222"/>
+      <c r="B94" s="207"/>
+      <c r="C94" s="207"/>
+      <c r="D94" s="208"/>
       <c r="E94" s="80" t="s">
         <v>207</v>
       </c>
@@ -16475,12 +16475,12 @@
       <c r="L94" s="86"/>
     </row>
     <row r="95" spans="1:16" s="81" customFormat="1" ht="12">
-      <c r="A95" s="220" t="s">
+      <c r="A95" s="206" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="221"/>
-      <c r="C95" s="221"/>
-      <c r="D95" s="222"/>
+      <c r="B95" s="207"/>
+      <c r="C95" s="207"/>
+      <c r="D95" s="208"/>
       <c r="E95" s="80" t="s">
         <v>209</v>
       </c>
@@ -16499,12 +16499,12 @@
       <c r="P95" s="40"/>
     </row>
     <row r="96" spans="1:16" s="81" customFormat="1" ht="12">
-      <c r="A96" s="223" t="s">
+      <c r="A96" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="B96" s="224"/>
-      <c r="C96" s="224"/>
-      <c r="D96" s="225"/>
+      <c r="B96" s="204"/>
+      <c r="C96" s="204"/>
+      <c r="D96" s="205"/>
       <c r="E96" s="80" t="s">
         <v>186</v>
       </c>
@@ -16523,12 +16523,12 @@
       <c r="P96" s="40"/>
     </row>
     <row r="97" spans="1:16" s="81" customFormat="1" ht="24">
-      <c r="A97" s="226" t="s">
+      <c r="A97" s="194" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="227"/>
-      <c r="C97" s="227"/>
-      <c r="D97" s="228"/>
+      <c r="B97" s="195"/>
+      <c r="C97" s="195"/>
+      <c r="D97" s="196"/>
       <c r="E97" s="80" t="s">
         <v>210</v>
       </c>
@@ -16547,12 +16547,12 @@
       <c r="P97" s="40"/>
     </row>
     <row r="98" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A98" s="223" t="s">
+      <c r="A98" s="203" t="s">
         <v>211</v>
       </c>
-      <c r="B98" s="224"/>
-      <c r="C98" s="224"/>
-      <c r="D98" s="225"/>
+      <c r="B98" s="204"/>
+      <c r="C98" s="204"/>
+      <c r="D98" s="205"/>
       <c r="E98" s="80" t="s">
         <v>212</v>
       </c>
@@ -16573,12 +16573,12 @@
       <c r="P98" s="89"/>
     </row>
     <row r="99" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A99" s="223" t="s">
+      <c r="A99" s="203" t="s">
         <v>214</v>
       </c>
-      <c r="B99" s="224"/>
-      <c r="C99" s="224"/>
-      <c r="D99" s="225"/>
+      <c r="B99" s="204"/>
+      <c r="C99" s="204"/>
+      <c r="D99" s="205"/>
       <c r="E99" s="80" t="s">
         <v>215</v>
       </c>
@@ -16597,12 +16597,12 @@
       <c r="P99" s="89"/>
     </row>
     <row r="100" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A100" s="223" t="s">
+      <c r="A100" s="203" t="s">
         <v>206</v>
       </c>
-      <c r="B100" s="224"/>
-      <c r="C100" s="224"/>
-      <c r="D100" s="225"/>
+      <c r="B100" s="204"/>
+      <c r="C100" s="204"/>
+      <c r="D100" s="205"/>
       <c r="E100" s="80" t="s">
         <v>207</v>
       </c>
@@ -16621,12 +16621,12 @@
       <c r="P100" s="89"/>
     </row>
     <row r="101" spans="1:16" s="81" customFormat="1" ht="12">
-      <c r="A101" s="223" t="s">
+      <c r="A101" s="203" t="s">
         <v>216</v>
       </c>
-      <c r="B101" s="224"/>
-      <c r="C101" s="224"/>
-      <c r="D101" s="225"/>
+      <c r="B101" s="204"/>
+      <c r="C101" s="204"/>
+      <c r="D101" s="205"/>
       <c r="E101" s="80" t="s">
         <v>217</v>
       </c>
@@ -16645,12 +16645,12 @@
       <c r="P101" s="40"/>
     </row>
     <row r="102" spans="1:16" s="25" customFormat="1" ht="12">
-      <c r="A102" s="229" t="s">
+      <c r="A102" s="200" t="s">
         <v>218</v>
       </c>
-      <c r="B102" s="230"/>
-      <c r="C102" s="230"/>
-      <c r="D102" s="231"/>
+      <c r="B102" s="201"/>
+      <c r="C102" s="201"/>
+      <c r="D102" s="202"/>
       <c r="E102" s="64"/>
       <c r="F102" s="64"/>
       <c r="G102" s="32"/>
@@ -16665,12 +16665,12 @@
       <c r="P102" s="26"/>
     </row>
     <row r="103" spans="1:16" s="25" customFormat="1" ht="14.25">
-      <c r="A103" s="229" t="s">
+      <c r="A103" s="200" t="s">
         <v>219</v>
       </c>
-      <c r="B103" s="230"/>
-      <c r="C103" s="230"/>
-      <c r="D103" s="231"/>
+      <c r="B103" s="201"/>
+      <c r="C103" s="201"/>
+      <c r="D103" s="202"/>
       <c r="E103" s="91" t="s">
         <v>220</v>
       </c>
@@ -16691,12 +16691,12 @@
       <c r="P103" s="26"/>
     </row>
     <row r="104" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A104" s="229" t="s">
+      <c r="A104" s="200" t="s">
         <v>223</v>
       </c>
-      <c r="B104" s="230"/>
-      <c r="C104" s="230"/>
-      <c r="D104" s="231"/>
+      <c r="B104" s="201"/>
+      <c r="C104" s="201"/>
+      <c r="D104" s="202"/>
       <c r="E104" s="64" t="s">
         <v>224</v>
       </c>
@@ -16715,12 +16715,12 @@
       <c r="P104" s="89"/>
     </row>
     <row r="105" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A105" s="229" t="s">
+      <c r="A105" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="230"/>
-      <c r="C105" s="230"/>
-      <c r="D105" s="231"/>
+      <c r="B105" s="201"/>
+      <c r="C105" s="201"/>
+      <c r="D105" s="202"/>
       <c r="E105" s="64"/>
       <c r="F105" s="64"/>
       <c r="G105" s="32"/>
@@ -16735,12 +16735,12 @@
       <c r="P105" s="89"/>
     </row>
     <row r="106" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A106" s="229" t="s">
+      <c r="A106" s="200" t="s">
         <v>226</v>
       </c>
-      <c r="B106" s="230"/>
-      <c r="C106" s="230"/>
-      <c r="D106" s="231"/>
+      <c r="B106" s="201"/>
+      <c r="C106" s="201"/>
+      <c r="D106" s="202"/>
       <c r="E106" s="64"/>
       <c r="F106" s="64"/>
       <c r="G106" s="32"/>
@@ -16755,12 +16755,12 @@
       <c r="P106" s="89"/>
     </row>
     <row r="107" spans="1:16" s="25" customFormat="1" ht="12">
-      <c r="A107" s="232" t="s">
+      <c r="A107" s="197" t="s">
         <v>227</v>
       </c>
-      <c r="B107" s="233"/>
-      <c r="C107" s="233"/>
-      <c r="D107" s="234"/>
+      <c r="B107" s="198"/>
+      <c r="C107" s="198"/>
+      <c r="D107" s="199"/>
       <c r="E107" s="64"/>
       <c r="F107" s="64"/>
       <c r="G107" s="32"/>
@@ -16775,12 +16775,12 @@
       <c r="P107" s="26"/>
     </row>
     <row r="108" spans="1:16" s="25" customFormat="1" ht="12">
-      <c r="A108" s="232" t="s">
+      <c r="A108" s="197" t="s">
         <v>228</v>
       </c>
-      <c r="B108" s="233"/>
-      <c r="C108" s="233"/>
-      <c r="D108" s="234"/>
+      <c r="B108" s="198"/>
+      <c r="C108" s="198"/>
+      <c r="D108" s="199"/>
       <c r="E108" s="91"/>
       <c r="F108" s="91"/>
       <c r="G108" s="92"/>
@@ -16795,12 +16795,12 @@
       <c r="P108" s="26"/>
     </row>
     <row r="109" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A109" s="232" t="s">
+      <c r="A109" s="197" t="s">
         <v>229</v>
       </c>
-      <c r="B109" s="233"/>
-      <c r="C109" s="233"/>
-      <c r="D109" s="234"/>
+      <c r="B109" s="198"/>
+      <c r="C109" s="198"/>
+      <c r="D109" s="199"/>
       <c r="E109" s="64"/>
       <c r="F109" s="64"/>
       <c r="G109" s="32"/>
@@ -16815,12 +16815,12 @@
       <c r="P109" s="89"/>
     </row>
     <row r="110" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A110" s="232" t="s">
+      <c r="A110" s="197" t="s">
         <v>206</v>
       </c>
-      <c r="B110" s="233"/>
-      <c r="C110" s="233"/>
-      <c r="D110" s="234"/>
+      <c r="B110" s="198"/>
+      <c r="C110" s="198"/>
+      <c r="D110" s="199"/>
       <c r="E110" s="64"/>
       <c r="F110" s="64"/>
       <c r="G110" s="32"/>
@@ -16835,12 +16835,12 @@
       <c r="P110" s="89"/>
     </row>
     <row r="111" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A111" s="232" t="s">
+      <c r="A111" s="197" t="s">
         <v>230</v>
       </c>
-      <c r="B111" s="233"/>
-      <c r="C111" s="233"/>
-      <c r="D111" s="234"/>
+      <c r="B111" s="198"/>
+      <c r="C111" s="198"/>
+      <c r="D111" s="199"/>
       <c r="E111" s="64"/>
       <c r="F111" s="64"/>
       <c r="G111" s="32"/>
@@ -16855,12 +16855,12 @@
       <c r="P111" s="89"/>
     </row>
     <row r="112" spans="1:16" s="25" customFormat="1" ht="12">
-      <c r="A112" s="229" t="s">
+      <c r="A112" s="200" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="230"/>
-      <c r="C112" s="230"/>
-      <c r="D112" s="231"/>
+      <c r="B112" s="201"/>
+      <c r="C112" s="201"/>
+      <c r="D112" s="202"/>
       <c r="E112" s="64"/>
       <c r="F112" s="64"/>
       <c r="G112" s="32"/>
@@ -16875,12 +16875,12 @@
       <c r="P112" s="26"/>
     </row>
     <row r="113" spans="1:17" s="25" customFormat="1" ht="12">
-      <c r="A113" s="229" t="s">
+      <c r="A113" s="200" t="s">
         <v>232</v>
       </c>
-      <c r="B113" s="230"/>
-      <c r="C113" s="230"/>
-      <c r="D113" s="231"/>
+      <c r="B113" s="201"/>
+      <c r="C113" s="201"/>
+      <c r="D113" s="202"/>
       <c r="E113" s="91"/>
       <c r="F113" s="91"/>
       <c r="G113" s="92"/>
@@ -16895,12 +16895,12 @@
       <c r="P113" s="26"/>
     </row>
     <row r="114" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A114" s="229" t="s">
+      <c r="A114" s="200" t="s">
         <v>233</v>
       </c>
-      <c r="B114" s="230"/>
-      <c r="C114" s="230"/>
-      <c r="D114" s="231"/>
+      <c r="B114" s="201"/>
+      <c r="C114" s="201"/>
+      <c r="D114" s="202"/>
       <c r="E114" s="64"/>
       <c r="F114" s="64"/>
       <c r="G114" s="32"/>
@@ -16915,12 +16915,12 @@
       <c r="P114" s="89"/>
     </row>
     <row r="115" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A115" s="229" t="s">
+      <c r="A115" s="200" t="s">
         <v>206</v>
       </c>
-      <c r="B115" s="230"/>
-      <c r="C115" s="230"/>
-      <c r="D115" s="231"/>
+      <c r="B115" s="201"/>
+      <c r="C115" s="201"/>
+      <c r="D115" s="202"/>
       <c r="E115" s="64"/>
       <c r="F115" s="64"/>
       <c r="G115" s="32"/>
@@ -16935,12 +16935,12 @@
       <c r="P115" s="89"/>
     </row>
     <row r="116" spans="1:17" s="93" customFormat="1" ht="12.75">
-      <c r="A116" s="229" t="s">
+      <c r="A116" s="200" t="s">
         <v>234</v>
       </c>
-      <c r="B116" s="230"/>
-      <c r="C116" s="230"/>
-      <c r="D116" s="231"/>
+      <c r="B116" s="201"/>
+      <c r="C116" s="201"/>
+      <c r="D116" s="202"/>
       <c r="E116" s="64"/>
       <c r="F116" s="64"/>
       <c r="G116" s="32"/>
@@ -17005,12 +17005,12 @@
       <c r="P119" s="89"/>
     </row>
     <row r="120" spans="1:17" s="93" customFormat="1" ht="24">
-      <c r="A120" s="189" t="s">
+      <c r="A120" s="191" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="196"/>
-      <c r="C120" s="196"/>
-      <c r="D120" s="190"/>
+      <c r="B120" s="192"/>
+      <c r="C120" s="192"/>
+      <c r="D120" s="193"/>
       <c r="E120" s="27" t="s">
         <v>611</v>
       </c>
@@ -17037,12 +17037,12 @@
       <c r="P120" s="89"/>
     </row>
     <row r="121" spans="1:17" s="90" customFormat="1" ht="24">
-      <c r="A121" s="226" t="s">
+      <c r="A121" s="194" t="s">
         <v>237</v>
       </c>
-      <c r="B121" s="227"/>
-      <c r="C121" s="227"/>
-      <c r="D121" s="228"/>
+      <c r="B121" s="195"/>
+      <c r="C121" s="195"/>
+      <c r="D121" s="196"/>
       <c r="E121" s="80" t="s">
         <v>583</v>
       </c>
@@ -17142,12 +17142,12 @@
       <c r="P124" s="89"/>
     </row>
     <row r="125" spans="1:17" s="90" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="226" t="s">
+      <c r="A125" s="194" t="s">
         <v>243</v>
       </c>
-      <c r="B125" s="227"/>
-      <c r="C125" s="227"/>
-      <c r="D125" s="228"/>
+      <c r="B125" s="195"/>
+      <c r="C125" s="195"/>
+      <c r="D125" s="196"/>
       <c r="E125" s="80" t="s">
         <v>244</v>
       </c>
@@ -17168,12 +17168,12 @@
       <c r="P125" s="89"/>
     </row>
     <row r="126" spans="1:17" s="90" customFormat="1" ht="12.75">
-      <c r="A126" s="235" t="s">
+      <c r="A126" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B126" s="236"/>
-      <c r="C126" s="236"/>
-      <c r="D126" s="237"/>
+      <c r="B126" s="180"/>
+      <c r="C126" s="180"/>
+      <c r="D126" s="181"/>
       <c r="E126" s="80" t="s">
         <v>212</v>
       </c>
@@ -17248,12 +17248,12 @@
       <c r="P128" s="89"/>
     </row>
     <row r="129" spans="1:16" s="90" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A129" s="226" t="s">
+      <c r="A129" s="194" t="s">
         <v>256</v>
       </c>
-      <c r="B129" s="227"/>
-      <c r="C129" s="227"/>
-      <c r="D129" s="228"/>
+      <c r="B129" s="195"/>
+      <c r="C129" s="195"/>
+      <c r="D129" s="196"/>
       <c r="E129" s="80"/>
       <c r="F129" s="80"/>
       <c r="G129" s="106"/>
@@ -17270,12 +17270,12 @@
       <c r="P129" s="89"/>
     </row>
     <row r="130" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A130" s="235" t="s">
+      <c r="A130" s="179" t="s">
         <v>246</v>
       </c>
-      <c r="B130" s="236"/>
-      <c r="C130" s="236"/>
-      <c r="D130" s="237"/>
+      <c r="B130" s="180"/>
+      <c r="C130" s="180"/>
+      <c r="D130" s="181"/>
       <c r="E130" s="80" t="s">
         <v>200</v>
       </c>
@@ -17320,12 +17320,12 @@
       <c r="P131" s="89"/>
     </row>
     <row r="132" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A132" s="235" t="s">
+      <c r="A132" s="179" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="236"/>
-      <c r="C132" s="236"/>
-      <c r="D132" s="237"/>
+      <c r="B132" s="180"/>
+      <c r="C132" s="180"/>
+      <c r="D132" s="181"/>
       <c r="E132" s="80" t="s">
         <v>261</v>
       </c>
@@ -17346,12 +17346,12 @@
       <c r="P132" s="89"/>
     </row>
     <row r="133" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A133" s="235" t="s">
+      <c r="A133" s="179" t="s">
         <v>264</v>
       </c>
-      <c r="B133" s="236"/>
-      <c r="C133" s="236"/>
-      <c r="D133" s="237"/>
+      <c r="B133" s="180"/>
+      <c r="C133" s="180"/>
+      <c r="D133" s="181"/>
       <c r="E133" s="80" t="s">
         <v>265</v>
       </c>
@@ -17372,12 +17372,12 @@
       <c r="P133" s="89"/>
     </row>
     <row r="134" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A134" s="235" t="s">
+      <c r="A134" s="179" t="s">
         <v>267</v>
       </c>
-      <c r="B134" s="242"/>
-      <c r="C134" s="242"/>
-      <c r="D134" s="243"/>
+      <c r="B134" s="182"/>
+      <c r="C134" s="182"/>
+      <c r="D134" s="183"/>
       <c r="E134" s="113" t="s">
         <v>268</v>
       </c>
@@ -17398,12 +17398,12 @@
       <c r="P134" s="117"/>
     </row>
     <row r="135" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A135" s="235" t="s">
+      <c r="A135" s="179" t="s">
         <v>271</v>
       </c>
-      <c r="B135" s="242"/>
-      <c r="C135" s="242"/>
-      <c r="D135" s="243"/>
+      <c r="B135" s="182"/>
+      <c r="C135" s="182"/>
+      <c r="D135" s="183"/>
       <c r="E135" s="113" t="s">
         <v>272</v>
       </c>
@@ -17422,19 +17422,19 @@
       <c r="P135" s="117"/>
     </row>
     <row r="136" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A136" s="235" t="s">
+      <c r="A136" s="179" t="s">
         <v>274</v>
       </c>
-      <c r="B136" s="242"/>
-      <c r="C136" s="242"/>
-      <c r="D136" s="243"/>
+      <c r="B136" s="182"/>
+      <c r="C136" s="182"/>
+      <c r="D136" s="183"/>
       <c r="E136" s="113" t="s">
         <v>275</v>
       </c>
       <c r="F136" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="G136" s="240" t="s">
+      <c r="G136" s="189" t="s">
         <v>277</v>
       </c>
       <c r="H136" s="114"/>
@@ -17448,19 +17448,19 @@
       <c r="P136" s="117"/>
     </row>
     <row r="137" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A137" s="235" t="s">
+      <c r="A137" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="B137" s="242"/>
-      <c r="C137" s="242"/>
-      <c r="D137" s="243"/>
+      <c r="B137" s="182"/>
+      <c r="C137" s="182"/>
+      <c r="D137" s="183"/>
       <c r="E137" s="113" t="s">
         <v>279</v>
       </c>
       <c r="F137" s="113" t="s">
         <v>280</v>
       </c>
-      <c r="G137" s="241"/>
+      <c r="G137" s="190"/>
       <c r="H137" s="114"/>
       <c r="I137" s="99"/>
       <c r="J137" s="115"/>
@@ -17472,12 +17472,12 @@
       <c r="P137" s="117"/>
     </row>
     <row r="138" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A138" s="235" t="s">
+      <c r="A138" s="179" t="s">
         <v>281</v>
       </c>
-      <c r="B138" s="242"/>
-      <c r="C138" s="242"/>
-      <c r="D138" s="243"/>
+      <c r="B138" s="182"/>
+      <c r="C138" s="182"/>
+      <c r="D138" s="183"/>
       <c r="E138" s="113" t="s">
         <v>282</v>
       </c>
@@ -17496,12 +17496,12 @@
       <c r="P138" s="117"/>
     </row>
     <row r="139" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A139" s="235" t="s">
+      <c r="A139" s="179" t="s">
         <v>284</v>
       </c>
-      <c r="B139" s="242"/>
-      <c r="C139" s="242"/>
-      <c r="D139" s="243"/>
+      <c r="B139" s="182"/>
+      <c r="C139" s="182"/>
+      <c r="D139" s="183"/>
       <c r="E139" s="113" t="s">
         <v>285</v>
       </c>
@@ -17520,12 +17520,12 @@
       <c r="P139" s="117"/>
     </row>
     <row r="140" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A140" s="235" t="s">
+      <c r="A140" s="179" t="s">
         <v>287</v>
       </c>
-      <c r="B140" s="242"/>
-      <c r="C140" s="242"/>
-      <c r="D140" s="243"/>
+      <c r="B140" s="182"/>
+      <c r="C140" s="182"/>
+      <c r="D140" s="183"/>
       <c r="E140" s="113" t="s">
         <v>288</v>
       </c>
@@ -17544,12 +17544,12 @@
       <c r="P140" s="117"/>
     </row>
     <row r="141" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A141" s="235" t="s">
+      <c r="A141" s="179" t="s">
         <v>290</v>
       </c>
-      <c r="B141" s="242"/>
-      <c r="C141" s="242"/>
-      <c r="D141" s="243"/>
+      <c r="B141" s="182"/>
+      <c r="C141" s="182"/>
+      <c r="D141" s="183"/>
       <c r="E141" s="113" t="s">
         <v>291</v>
       </c>
@@ -17568,12 +17568,12 @@
       <c r="P141" s="117"/>
     </row>
     <row r="142" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A142" s="235" t="s">
+      <c r="A142" s="179" t="s">
         <v>293</v>
       </c>
-      <c r="B142" s="242"/>
-      <c r="C142" s="242"/>
-      <c r="D142" s="243"/>
+      <c r="B142" s="182"/>
+      <c r="C142" s="182"/>
+      <c r="D142" s="183"/>
       <c r="E142" s="113" t="s">
         <v>294</v>
       </c>
@@ -17592,12 +17592,12 @@
       <c r="P142" s="117"/>
     </row>
     <row r="143" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A143" s="235" t="s">
+      <c r="A143" s="179" t="s">
         <v>296</v>
       </c>
-      <c r="B143" s="242"/>
-      <c r="C143" s="242"/>
-      <c r="D143" s="243"/>
+      <c r="B143" s="182"/>
+      <c r="C143" s="182"/>
+      <c r="D143" s="183"/>
       <c r="E143" s="113" t="s">
         <v>297</v>
       </c>
@@ -17616,16 +17616,16 @@
       <c r="P143" s="117"/>
     </row>
     <row r="144" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A144" s="235" t="s">
+      <c r="A144" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="B144" s="242"/>
-      <c r="C144" s="242"/>
-      <c r="D144" s="243"/>
-      <c r="E144" s="244" t="s">
+      <c r="B144" s="182"/>
+      <c r="C144" s="182"/>
+      <c r="D144" s="183"/>
+      <c r="E144" s="184" t="s">
         <v>300</v>
       </c>
-      <c r="F144" s="246"/>
+      <c r="F144" s="186"/>
       <c r="G144" s="114"/>
       <c r="H144" s="114"/>
       <c r="I144" s="99"/>
@@ -17638,16 +17638,16 @@
       <c r="P144" s="117"/>
     </row>
     <row r="145" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A145" s="235" t="s">
+      <c r="A145" s="179" t="s">
         <v>301</v>
       </c>
-      <c r="B145" s="242"/>
-      <c r="C145" s="242"/>
-      <c r="D145" s="243"/>
-      <c r="E145" s="244" t="s">
+      <c r="B145" s="182"/>
+      <c r="C145" s="182"/>
+      <c r="D145" s="183"/>
+      <c r="E145" s="184" t="s">
         <v>302</v>
       </c>
-      <c r="F145" s="246"/>
+      <c r="F145" s="186"/>
       <c r="G145" s="114"/>
       <c r="H145" s="114"/>
       <c r="I145" s="99"/>
@@ -17660,16 +17660,16 @@
       <c r="P145" s="117"/>
     </row>
     <row r="146" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A146" s="235" t="s">
+      <c r="A146" s="179" t="s">
         <v>303</v>
       </c>
-      <c r="B146" s="242"/>
-      <c r="C146" s="242"/>
-      <c r="D146" s="243"/>
-      <c r="E146" s="244" t="s">
+      <c r="B146" s="182"/>
+      <c r="C146" s="182"/>
+      <c r="D146" s="183"/>
+      <c r="E146" s="184" t="s">
         <v>304</v>
       </c>
-      <c r="F146" s="246"/>
+      <c r="F146" s="186"/>
       <c r="G146" s="114"/>
       <c r="H146" s="114"/>
       <c r="I146" s="99"/>
@@ -17682,16 +17682,16 @@
       <c r="P146" s="117"/>
     </row>
     <row r="147" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A147" s="235" t="s">
+      <c r="A147" s="179" t="s">
         <v>305</v>
       </c>
-      <c r="B147" s="242"/>
-      <c r="C147" s="242"/>
-      <c r="D147" s="243"/>
-      <c r="E147" s="244" t="s">
+      <c r="B147" s="182"/>
+      <c r="C147" s="182"/>
+      <c r="D147" s="183"/>
+      <c r="E147" s="184" t="s">
         <v>306</v>
       </c>
-      <c r="F147" s="246"/>
+      <c r="F147" s="186"/>
       <c r="G147" s="114"/>
       <c r="H147" s="114"/>
       <c r="I147" s="99"/>
@@ -17704,16 +17704,16 @@
       <c r="P147" s="117"/>
     </row>
     <row r="148" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A148" s="235" t="s">
+      <c r="A148" s="179" t="s">
         <v>307</v>
       </c>
-      <c r="B148" s="242"/>
-      <c r="C148" s="242"/>
-      <c r="D148" s="243"/>
-      <c r="E148" s="244" t="s">
+      <c r="B148" s="182"/>
+      <c r="C148" s="182"/>
+      <c r="D148" s="183"/>
+      <c r="E148" s="184" t="s">
         <v>308</v>
       </c>
-      <c r="F148" s="246"/>
+      <c r="F148" s="186"/>
       <c r="G148" s="114"/>
       <c r="H148" s="114"/>
       <c r="I148" s="99"/>
@@ -17726,16 +17726,16 @@
       <c r="P148" s="117"/>
     </row>
     <row r="149" spans="1:16" s="118" customFormat="1" ht="12.75">
-      <c r="A149" s="235" t="s">
+      <c r="A149" s="179" t="s">
         <v>309</v>
       </c>
-      <c r="B149" s="242"/>
-      <c r="C149" s="242"/>
-      <c r="D149" s="243"/>
-      <c r="E149" s="244" t="s">
+      <c r="B149" s="182"/>
+      <c r="C149" s="182"/>
+      <c r="D149" s="183"/>
+      <c r="E149" s="184" t="s">
         <v>310</v>
       </c>
-      <c r="F149" s="246"/>
+      <c r="F149" s="186"/>
       <c r="G149" s="114"/>
       <c r="H149" s="114"/>
       <c r="I149" s="99"/>
@@ -17768,12 +17768,12 @@
       <c r="P151" s="89"/>
     </row>
     <row r="152" spans="1:16" s="93" customFormat="1" ht="24">
-      <c r="A152" s="253" t="s">
+      <c r="A152" s="176" t="s">
         <v>312</v>
       </c>
-      <c r="B152" s="254"/>
-      <c r="C152" s="254"/>
-      <c r="D152" s="255"/>
+      <c r="B152" s="177"/>
+      <c r="C152" s="177"/>
+      <c r="D152" s="178"/>
       <c r="E152" s="27" t="s">
         <v>611</v>
       </c>
@@ -17800,12 +17800,12 @@
       <c r="P152" s="89"/>
     </row>
     <row r="153" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A153" s="250" t="s">
+      <c r="A153" s="173" t="s">
         <v>314</v>
       </c>
-      <c r="B153" s="251"/>
-      <c r="C153" s="251"/>
-      <c r="D153" s="252"/>
+      <c r="B153" s="174"/>
+      <c r="C153" s="174"/>
+      <c r="D153" s="175"/>
       <c r="E153" s="119"/>
       <c r="F153" s="119"/>
       <c r="G153" s="112"/>
@@ -17820,12 +17820,12 @@
       <c r="P153" s="89"/>
     </row>
     <row r="154" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A154" s="250" t="s">
+      <c r="A154" s="173" t="s">
         <v>621</v>
       </c>
-      <c r="B154" s="251"/>
-      <c r="C154" s="251"/>
-      <c r="D154" s="252"/>
+      <c r="B154" s="174"/>
+      <c r="C154" s="174"/>
+      <c r="D154" s="175"/>
       <c r="E154" s="119"/>
       <c r="F154" s="119"/>
       <c r="G154" s="112"/>
@@ -17840,10 +17840,10 @@
       <c r="P154" s="89"/>
     </row>
     <row r="155" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A155" s="250"/>
-      <c r="B155" s="251"/>
-      <c r="C155" s="251"/>
-      <c r="D155" s="252"/>
+      <c r="A155" s="173"/>
+      <c r="B155" s="174"/>
+      <c r="C155" s="174"/>
+      <c r="D155" s="175"/>
       <c r="E155" s="119"/>
       <c r="F155" s="119"/>
       <c r="G155" s="112"/>
@@ -17858,10 +17858,10 @@
       <c r="P155" s="89"/>
     </row>
     <row r="156" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A156" s="250"/>
-      <c r="B156" s="251"/>
-      <c r="C156" s="251"/>
-      <c r="D156" s="252"/>
+      <c r="A156" s="173"/>
+      <c r="B156" s="174"/>
+      <c r="C156" s="174"/>
+      <c r="D156" s="175"/>
       <c r="E156" s="119"/>
       <c r="F156" s="119"/>
       <c r="G156" s="112"/>
@@ -17895,12 +17895,12 @@
       <c r="P158" s="89"/>
     </row>
     <row r="159" spans="1:16" s="93" customFormat="1" ht="24">
-      <c r="A159" s="253" t="s">
+      <c r="A159" s="176" t="s">
         <v>316</v>
       </c>
-      <c r="B159" s="254"/>
-      <c r="C159" s="254"/>
-      <c r="D159" s="255"/>
+      <c r="B159" s="177"/>
+      <c r="C159" s="177"/>
+      <c r="D159" s="178"/>
       <c r="E159" s="27" t="s">
         <v>611</v>
       </c>
@@ -17927,12 +17927,12 @@
       <c r="P159" s="89"/>
     </row>
     <row r="160" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A160" s="235" t="s">
+      <c r="A160" s="179" t="s">
         <v>318</v>
       </c>
-      <c r="B160" s="236"/>
-      <c r="C160" s="236"/>
-      <c r="D160" s="237"/>
+      <c r="B160" s="180"/>
+      <c r="C160" s="180"/>
+      <c r="D160" s="181"/>
       <c r="E160" s="119" t="s">
         <v>319</v>
       </c>
@@ -17951,12 +17951,12 @@
       <c r="P160" s="89"/>
     </row>
     <row r="161" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A161" s="235" t="s">
+      <c r="A161" s="179" t="s">
         <v>321</v>
       </c>
-      <c r="B161" s="236"/>
-      <c r="C161" s="236"/>
-      <c r="D161" s="237"/>
+      <c r="B161" s="180"/>
+      <c r="C161" s="180"/>
+      <c r="D161" s="181"/>
       <c r="E161" s="119" t="s">
         <v>265</v>
       </c>
@@ -17975,12 +17975,12 @@
       <c r="P161" s="89"/>
     </row>
     <row r="162" spans="1:16" s="90" customFormat="1" ht="12.75">
-      <c r="A162" s="235" t="s">
+      <c r="A162" s="179" t="s">
         <v>322</v>
       </c>
-      <c r="B162" s="236"/>
-      <c r="C162" s="236"/>
-      <c r="D162" s="237"/>
+      <c r="B162" s="180"/>
+      <c r="C162" s="180"/>
+      <c r="D162" s="181"/>
       <c r="E162" s="119" t="s">
         <v>265</v>
       </c>
@@ -18011,12 +18011,12 @@
       <c r="P164" s="89"/>
     </row>
     <row r="165" spans="1:16" s="93" customFormat="1" ht="24">
-      <c r="A165" s="253" t="s">
+      <c r="A165" s="176" t="s">
         <v>324</v>
       </c>
-      <c r="B165" s="254"/>
-      <c r="C165" s="254"/>
-      <c r="D165" s="255"/>
+      <c r="B165" s="177"/>
+      <c r="C165" s="177"/>
+      <c r="D165" s="178"/>
       <c r="E165" s="27" t="s">
         <v>611</v>
       </c>
@@ -18043,12 +18043,12 @@
       <c r="P165" s="89"/>
     </row>
     <row r="166" spans="1:16" s="93" customFormat="1" ht="12.75">
-      <c r="A166" s="247" t="s">
+      <c r="A166" s="170" t="s">
         <v>325</v>
       </c>
-      <c r="B166" s="248"/>
-      <c r="C166" s="248"/>
-      <c r="D166" s="249"/>
+      <c r="B166" s="171"/>
+      <c r="C166" s="171"/>
+      <c r="D166" s="172"/>
       <c r="E166" s="121" t="s">
         <v>326</v>
       </c>
@@ -18071,6 +18071,154 @@
     <row r="167" spans="1:16" s="93" customFormat="1" ht="12.75"/>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="J42:J44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="I69:I70"/>
+    <mergeCell ref="J69:J70"/>
+    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="A70:D70"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A69:D69"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A96:D96"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="A105:D105"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A110:D110"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="A121:D121"/>
+    <mergeCell ref="A125:D125"/>
+    <mergeCell ref="A126:D126"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A113:D113"/>
+    <mergeCell ref="A114:D114"/>
+    <mergeCell ref="A115:D115"/>
+    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A138:D138"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A140:D140"/>
+    <mergeCell ref="A141:D141"/>
+    <mergeCell ref="A130:D130"/>
+    <mergeCell ref="A132:D132"/>
+    <mergeCell ref="A133:D133"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="E148:F148"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:F144"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="E145:F145"/>
     <mergeCell ref="A166:D166"/>
     <mergeCell ref="A156:D156"/>
     <mergeCell ref="A159:D159"/>
@@ -18084,154 +18232,6 @@
     <mergeCell ref="A153:D153"/>
     <mergeCell ref="A154:D154"/>
     <mergeCell ref="A155:D155"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="E144:F144"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A138:D138"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A140:D140"/>
-    <mergeCell ref="A141:D141"/>
-    <mergeCell ref="A130:D130"/>
-    <mergeCell ref="A132:D132"/>
-    <mergeCell ref="A133:D133"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="A121:D121"/>
-    <mergeCell ref="A125:D125"/>
-    <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="A111:D111"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A113:D113"/>
-    <mergeCell ref="A114:D114"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A105:D105"/>
-    <mergeCell ref="A106:D106"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A110:D110"/>
-    <mergeCell ref="A99:D99"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:D98"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A79:D79"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="A92:D92"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A76:D76"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A74:D74"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="J69:J70"/>
-    <mergeCell ref="K69:K70"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="A70:D70"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A69:D69"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="J42:J44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <dataValidations count="2">
